--- a/coronaVirusData.xlsx
+++ b/coronaVirusData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="474">
   <si>
     <t>Date</t>
   </si>
@@ -22,7 +22,10 @@
     <t>Suspects</t>
   </si>
   <si>
-    <t>Confirmed</t>
+    <t>Active Cases</t>
+  </si>
+  <si>
+    <t>DailyIncreaseInActive</t>
   </si>
   <si>
     <t>ConfirmedCumulative</t>
@@ -34,6 +37,9 @@
     <t>Serious</t>
   </si>
   <si>
+    <t>Serious%</t>
+  </si>
+  <si>
     <t>Deaths</t>
   </si>
   <si>
@@ -142,6 +148,12 @@
     <t>23,589</t>
   </si>
   <si>
+    <t>21,675</t>
+  </si>
+  <si>
+    <t>16,067</t>
+  </si>
+  <si>
     <t>40</t>
   </si>
   <si>
@@ -211,6 +223,72 @@
     <t>35,982</t>
   </si>
   <si>
+    <t>37,626</t>
+  </si>
+  <si>
+    <t>38,800</t>
+  </si>
+  <si>
+    <t>45.2%</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>56.7%</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>39.7%</t>
+  </si>
+  <si>
+    <t>66.4%</t>
+  </si>
+  <si>
+    <t>32.0%</t>
+  </si>
+  <si>
+    <t>29.2%</t>
+  </si>
+  <si>
+    <t>25.5%</t>
+  </si>
+  <si>
+    <t>21.3%</t>
+  </si>
+  <si>
+    <t>21.8%</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>10.2%</t>
+  </si>
+  <si>
+    <t>9.6%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
     <t>41</t>
   </si>
   <si>
@@ -286,6 +364,12 @@
     <t>40,171</t>
   </si>
   <si>
+    <t>42,638</t>
+  </si>
+  <si>
+    <t>44,653</t>
+  </si>
+  <si>
     <t>37.8%</t>
   </si>
   <si>
@@ -358,6 +442,12 @@
     <t>8.0%</t>
   </si>
   <si>
+    <t>6.1%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -424,6 +514,78 @@
     <t>6,484</t>
   </si>
   <si>
+    <t>7,333</t>
+  </si>
+  <si>
+    <t>8,204</t>
+  </si>
+  <si>
+    <t>16.13%</t>
+  </si>
+  <si>
+    <t>17.78%</t>
+  </si>
+  <si>
+    <t>25.88%</t>
+  </si>
+  <si>
+    <t>22.96%</t>
+  </si>
+  <si>
+    <t>19.62%</t>
+  </si>
+  <si>
+    <t>17.33%</t>
+  </si>
+  <si>
+    <t>17.64%</t>
+  </si>
+  <si>
+    <t>22.44%</t>
+  </si>
+  <si>
+    <t>21.59%</t>
+  </si>
+  <si>
+    <t>18.47%</t>
+  </si>
+  <si>
+    <t>16.41%</t>
+  </si>
+  <si>
+    <t>15.90%</t>
+  </si>
+  <si>
+    <t>15.35%</t>
+  </si>
+  <si>
+    <t>14.03%</t>
+  </si>
+  <si>
+    <t>14.38%</t>
+  </si>
+  <si>
+    <t>14.67%</t>
+  </si>
+  <si>
+    <t>16.63%</t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>18.34%</t>
+  </si>
+  <si>
+    <t>18.02%</t>
+  </si>
+  <si>
+    <t>19.49%</t>
+  </si>
+  <si>
+    <t>21.14%</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -490,6 +652,12 @@
     <t>908</t>
   </si>
   <si>
+    <t>1,016</t>
+  </si>
+  <si>
+    <t>1,113</t>
+  </si>
+  <si>
     <t>7</t>
   </si>
   <si>
@@ -556,6 +724,12 @@
     <t>3,281</t>
   </si>
   <si>
+    <t>3,996</t>
+  </si>
+  <si>
+    <t>4,749</t>
+  </si>
+  <si>
     <t>14</t>
   </si>
   <si>
@@ -610,6 +784,12 @@
     <t>4,189</t>
   </si>
   <si>
+    <t>5,012</t>
+  </si>
+  <si>
+    <t>5,862</t>
+  </si>
+  <si>
     <t>22.2%</t>
   </si>
   <si>
@@ -676,64 +856,79 @@
     <t>23.4%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>13%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>5%</t>
-  </si>
-  <si>
-    <t>47%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>64%</t>
-  </si>
-  <si>
-    <t>48%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>28%</t>
-  </si>
-  <si>
-    <t>29%</t>
-  </si>
-  <si>
-    <t>20%</t>
-  </si>
-  <si>
-    <t>22%</t>
-  </si>
-  <si>
-    <t>16%</t>
-  </si>
-  <si>
-    <t>14%</t>
+    <t>20.3%</t>
+  </si>
+  <si>
+    <t>100.0%</t>
+  </si>
+  <si>
+    <t>12.5%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-100.0%</t>
+  </si>
+  <si>
+    <t>33.3%</t>
+  </si>
+  <si>
+    <t>-13.6%</t>
+  </si>
+  <si>
+    <t>80.0%</t>
+  </si>
+  <si>
+    <t>57.7%</t>
+  </si>
+  <si>
+    <t>92.3%</t>
+  </si>
+  <si>
+    <t>74.3%</t>
+  </si>
+  <si>
+    <t>37.7%</t>
+  </si>
+  <si>
+    <t>64.4%</t>
+  </si>
+  <si>
+    <t>47.8%</t>
+  </si>
+  <si>
+    <t>39.0%</t>
+  </si>
+  <si>
+    <t>34.6%</t>
+  </si>
+  <si>
+    <t>27.9%</t>
+  </si>
+  <si>
+    <t>29.0%</t>
+  </si>
+  <si>
+    <t>20.0%</t>
+  </si>
+  <si>
+    <t>21.9%</t>
+  </si>
+  <si>
+    <t>16.1%</t>
+  </si>
+  <si>
+    <t>12.9%</t>
+  </si>
+  <si>
+    <t>13.3%</t>
+  </si>
+  <si>
+    <t>13.1%</t>
+  </si>
+  <si>
+    <t>11.4%</t>
   </si>
   <si>
     <t>2.44%</t>
@@ -805,6 +1000,12 @@
     <t>2.26%</t>
   </si>
   <si>
+    <t>2.38%</t>
+  </si>
+  <si>
+    <t>2.49%</t>
+  </si>
+  <si>
     <t>2.4%</t>
   </si>
   <si>
@@ -829,9 +1030,6 @@
     <t>7.1%</t>
   </si>
   <si>
-    <t>6.1%</t>
-  </si>
-  <si>
     <t>5.3%</t>
   </si>
   <si>
@@ -964,6 +1162,12 @@
     <t>187,518</t>
   </si>
   <si>
+    <t>187,728</t>
+  </si>
+  <si>
+    <t>185,037</t>
+  </si>
+  <si>
     <t>325</t>
   </si>
   <si>
@@ -1012,6 +1216,12 @@
     <t>29,307</t>
   </si>
   <si>
+    <t>26,724</t>
+  </si>
+  <si>
+    <t>30,068</t>
+  </si>
+  <si>
     <t>0</t>
   </si>
   <si>
@@ -1120,6 +1330,12 @@
     <t>399,487</t>
   </si>
   <si>
+    <t>428,438</t>
+  </si>
+  <si>
+    <t>451,462</t>
+  </si>
+  <si>
     <t>[3]</t>
   </si>
   <si>
@@ -1214,6 +1430,12 @@
   </si>
   <si>
     <t>[35]</t>
+  </si>
+  <si>
+    <t>[36]</t>
+  </si>
+  <si>
+    <t>[37]</t>
   </si>
 </sst>
 </file>
@@ -1575,13 +1797,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:S34"/>
+  <dimension ref="A1:U38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:21">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1636,8 +1858,14 @@
       <c r="S1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:21">
       <c r="A2" s="1">
         <v>2</v>
       </c>
@@ -1645,13 +1873,13 @@
         <v>43830</v>
       </c>
       <c r="C2" t="s">
-        <v>18</v>
-      </c>
-      <c r="S2" t="s">
-        <v>368</v>
+        <v>20</v>
+      </c>
+      <c r="U2" t="s">
+        <v>440</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:21">
       <c r="A3" s="1">
         <v>3</v>
       </c>
@@ -1659,16 +1887,16 @@
         <v>43833</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="O3" t="s">
-        <v>67</v>
-      </c>
-      <c r="S3" t="s">
-        <v>369</v>
+        <v>21</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>93</v>
+      </c>
+      <c r="U3" t="s">
+        <v>441</v>
       </c>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:21">
       <c r="A4" s="1">
         <v>4</v>
       </c>
@@ -1676,16 +1904,16 @@
         <v>43835</v>
       </c>
       <c r="C4" t="s">
-        <v>20</v>
-      </c>
-      <c r="O4" t="s">
-        <v>286</v>
-      </c>
-      <c r="S4" t="s">
-        <v>370</v>
+        <v>22</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>352</v>
+      </c>
+      <c r="U4" t="s">
+        <v>442</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:21">
       <c r="A5" s="1">
         <v>5</v>
       </c>
@@ -1693,40 +1921,40 @@
         <v>43840</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" t="s">
-        <v>136</v>
+        <v>46</v>
+      </c>
+      <c r="F5" t="s">
+        <v>91</v>
       </c>
       <c r="J5" t="s">
-        <v>136</v>
+        <v>190</v>
       </c>
       <c r="L5" t="s">
-        <v>220</v>
-      </c>
-      <c r="M5" t="s">
-        <v>240</v>
+        <v>190</v>
       </c>
       <c r="N5" t="s">
-        <v>263</v>
+        <v>281</v>
       </c>
       <c r="O5" t="s">
-        <v>287</v>
+        <v>305</v>
+      </c>
+      <c r="P5" t="s">
+        <v>330</v>
       </c>
       <c r="Q5" t="s">
-        <v>332</v>
-      </c>
-      <c r="R5" t="s">
-        <v>287</v>
+        <v>353</v>
       </c>
       <c r="S5" t="s">
-        <v>371</v>
+        <v>402</v>
+      </c>
+      <c r="T5" t="s">
+        <v>353</v>
+      </c>
+      <c r="U5" t="s">
+        <v>443</v>
       </c>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:21">
       <c r="A6" s="1">
         <v>6</v>
       </c>
@@ -1734,37 +1962,37 @@
         <v>43841</v>
       </c>
       <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="E6" t="s">
-        <v>65</v>
-      </c>
-      <c r="H6" t="s">
-        <v>136</v>
+        <v>46</v>
+      </c>
+      <c r="F6" t="s">
+        <v>91</v>
       </c>
       <c r="J6" t="s">
-        <v>136</v>
-      </c>
-      <c r="M6" t="s">
-        <v>240</v>
-      </c>
-      <c r="N6" t="s">
-        <v>263</v>
+        <v>190</v>
+      </c>
+      <c r="L6" t="s">
+        <v>190</v>
       </c>
       <c r="O6" t="s">
-        <v>288</v>
+        <v>305</v>
+      </c>
+      <c r="P6" t="s">
+        <v>330</v>
       </c>
       <c r="Q6" t="s">
-        <v>333</v>
-      </c>
-      <c r="R6" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
       <c r="S6" t="s">
-        <v>372</v>
+        <v>403</v>
+      </c>
+      <c r="T6" t="s">
+        <v>415</v>
+      </c>
+      <c r="U6" t="s">
+        <v>444</v>
       </c>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:21">
       <c r="A7" s="1">
         <v>7</v>
       </c>
@@ -1772,37 +2000,37 @@
         <v>43842</v>
       </c>
       <c r="D7" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" t="s">
-        <v>65</v>
-      </c>
-      <c r="H7" t="s">
-        <v>136</v>
+        <v>46</v>
+      </c>
+      <c r="F7" t="s">
+        <v>91</v>
       </c>
       <c r="J7" t="s">
-        <v>136</v>
-      </c>
-      <c r="M7" t="s">
-        <v>240</v>
-      </c>
-      <c r="N7" t="s">
-        <v>263</v>
+        <v>190</v>
+      </c>
+      <c r="L7" t="s">
+        <v>190</v>
       </c>
       <c r="O7" t="s">
-        <v>289</v>
+        <v>305</v>
+      </c>
+      <c r="P7" t="s">
+        <v>330</v>
       </c>
       <c r="Q7" t="s">
-        <v>334</v>
-      </c>
-      <c r="R7" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="S7" t="s">
-        <v>373</v>
+        <v>404</v>
+      </c>
+      <c r="T7" t="s">
+        <v>415</v>
+      </c>
+      <c r="U7" t="s">
+        <v>445</v>
       </c>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:21">
       <c r="A8" s="1">
         <v>8</v>
       </c>
@@ -1810,75 +2038,75 @@
         <v>43843</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
-      </c>
-      <c r="E8" t="s">
-        <v>65</v>
-      </c>
-      <c r="H8" t="s">
-        <v>136</v>
+        <v>46</v>
+      </c>
+      <c r="F8" t="s">
+        <v>91</v>
       </c>
       <c r="J8" t="s">
-        <v>136</v>
-      </c>
-      <c r="M8" t="s">
-        <v>240</v>
-      </c>
-      <c r="N8" t="s">
-        <v>263</v>
+        <v>190</v>
+      </c>
+      <c r="L8" t="s">
+        <v>190</v>
       </c>
       <c r="O8" t="s">
-        <v>290</v>
+        <v>305</v>
+      </c>
+      <c r="P8" t="s">
+        <v>330</v>
       </c>
       <c r="Q8" t="s">
-        <v>335</v>
-      </c>
-      <c r="R8" t="s">
-        <v>345</v>
+        <v>356</v>
       </c>
       <c r="S8" t="s">
-        <v>374</v>
+        <v>405</v>
+      </c>
+      <c r="T8" t="s">
+        <v>415</v>
+      </c>
+      <c r="U8" t="s">
+        <v>446</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:21">
       <c r="A9" s="1">
         <v>9</v>
       </c>
       <c r="B9" s="2">
         <v>43845</v>
       </c>
-      <c r="H9" t="s">
-        <v>137</v>
-      </c>
-      <c r="I9" t="s">
-        <v>158</v>
-      </c>
       <c r="J9" t="s">
-        <v>140</v>
+        <v>191</v>
       </c>
       <c r="K9" t="s">
-        <v>198</v>
+        <v>214</v>
       </c>
       <c r="L9" t="s">
-        <v>221</v>
+        <v>194</v>
       </c>
       <c r="M9" t="s">
-        <v>241</v>
+        <v>258</v>
+      </c>
+      <c r="N9" t="s">
+        <v>282</v>
       </c>
       <c r="O9" t="s">
-        <v>291</v>
+        <v>306</v>
       </c>
       <c r="Q9" t="s">
-        <v>336</v>
-      </c>
-      <c r="R9" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="S9" t="s">
-        <v>375</v>
+        <v>406</v>
+      </c>
+      <c r="T9" t="s">
+        <v>415</v>
+      </c>
+      <c r="U9" t="s">
+        <v>447</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:21">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -1886,49 +2114,52 @@
         <v>43846</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G10" t="s">
-        <v>114</v>
+        <v>47</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
       </c>
       <c r="H10" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="J10" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="K10" t="s">
-        <v>199</v>
+        <v>215</v>
       </c>
       <c r="L10" t="s">
-        <v>222</v>
+        <v>238</v>
       </c>
       <c r="M10" t="s">
-        <v>242</v>
+        <v>259</v>
       </c>
       <c r="N10" t="s">
-        <v>264</v>
+        <v>283</v>
       </c>
       <c r="O10" t="s">
-        <v>292</v>
+        <v>307</v>
+      </c>
+      <c r="P10" t="s">
+        <v>331</v>
       </c>
       <c r="Q10" t="s">
-        <v>337</v>
-      </c>
-      <c r="R10" t="s">
-        <v>345</v>
+        <v>358</v>
       </c>
       <c r="S10" t="s">
-        <v>376</v>
+        <v>407</v>
+      </c>
+      <c r="T10" t="s">
+        <v>415</v>
+      </c>
+      <c r="U10" t="s">
+        <v>448</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:21">
       <c r="A11" s="1">
         <v>11</v>
       </c>
@@ -1936,81 +2167,87 @@
         <v>43847</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="E11" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="F11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="H11" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="I11" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="J11" t="s">
-        <v>141</v>
+        <v>191</v>
       </c>
       <c r="K11" t="s">
-        <v>200</v>
+        <v>216</v>
       </c>
       <c r="L11" t="s">
-        <v>222</v>
+        <v>195</v>
       </c>
       <c r="M11" t="s">
-        <v>243</v>
+        <v>260</v>
       </c>
       <c r="N11" t="s">
-        <v>265</v>
+        <v>283</v>
       </c>
       <c r="O11" t="s">
-        <v>293</v>
+        <v>308</v>
+      </c>
+      <c r="P11" t="s">
+        <v>332</v>
       </c>
       <c r="Q11" t="s">
-        <v>338</v>
-      </c>
-      <c r="R11" t="s">
-        <v>345</v>
+        <v>359</v>
       </c>
       <c r="S11" t="s">
-        <v>377</v>
+        <v>408</v>
+      </c>
+      <c r="T11" t="s">
+        <v>415</v>
+      </c>
+      <c r="U11" t="s">
+        <v>449</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:21">
       <c r="A12" s="1">
         <v>12</v>
       </c>
       <c r="B12" s="2">
         <v>43848</v>
       </c>
-      <c r="E12" t="s">
-        <v>67</v>
-      </c>
       <c r="F12" t="s">
-        <v>91</v>
-      </c>
-      <c r="I12" t="s">
-        <v>161</v>
-      </c>
-      <c r="L12" t="s">
-        <v>222</v>
-      </c>
-      <c r="M12" t="s">
-        <v>244</v>
+        <v>93</v>
+      </c>
+      <c r="G12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>217</v>
       </c>
       <c r="N12" t="s">
-        <v>266</v>
-      </c>
-      <c r="S12" t="s">
-        <v>378</v>
+        <v>284</v>
+      </c>
+      <c r="O12" t="s">
+        <v>309</v>
+      </c>
+      <c r="P12" t="s">
+        <v>333</v>
+      </c>
+      <c r="U12" t="s">
+        <v>450</v>
       </c>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:21">
       <c r="A13" s="1">
         <v>13</v>
       </c>
@@ -2018,52 +2255,55 @@
         <v>43849</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G13" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="H13" t="s">
-        <v>138</v>
+        <v>21</v>
       </c>
       <c r="I13" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="J13" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="K13" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="L13" t="s">
-        <v>223</v>
+        <v>239</v>
       </c>
       <c r="M13" t="s">
-        <v>245</v>
+        <v>261</v>
       </c>
       <c r="N13" t="s">
-        <v>267</v>
+        <v>285</v>
       </c>
       <c r="O13" t="s">
-        <v>294</v>
+        <v>310</v>
+      </c>
+      <c r="P13" t="s">
+        <v>334</v>
       </c>
       <c r="Q13" t="s">
-        <v>339</v>
-      </c>
-      <c r="R13" t="s">
-        <v>346</v>
+        <v>360</v>
       </c>
       <c r="S13" t="s">
-        <v>378</v>
+        <v>409</v>
+      </c>
+      <c r="T13" t="s">
+        <v>416</v>
+      </c>
+      <c r="U13" t="s">
+        <v>450</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:21">
       <c r="A14" s="1">
         <v>14</v>
       </c>
@@ -2071,52 +2311,55 @@
         <v>43850</v>
       </c>
       <c r="C14" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D14" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E14" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
-      </c>
-      <c r="H14" t="s">
-        <v>139</v>
-      </c>
-      <c r="I14" t="s">
-        <v>142</v>
+        <v>95</v>
+      </c>
+      <c r="G14" t="s">
+        <v>121</v>
       </c>
       <c r="J14" t="s">
-        <v>43</v>
+        <v>193</v>
       </c>
       <c r="K14" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="L14" t="s">
-        <v>220</v>
+        <v>47</v>
       </c>
       <c r="M14" t="s">
-        <v>246</v>
+        <v>262</v>
       </c>
       <c r="N14" t="s">
-        <v>201</v>
+        <v>281</v>
       </c>
       <c r="O14" t="s">
-        <v>295</v>
+        <v>311</v>
+      </c>
+      <c r="P14" t="s">
+        <v>261</v>
       </c>
       <c r="Q14" t="s">
-        <v>287</v>
-      </c>
-      <c r="R14" t="s">
-        <v>347</v>
+        <v>361</v>
       </c>
       <c r="S14" t="s">
-        <v>379</v>
+        <v>353</v>
+      </c>
+      <c r="T14" t="s">
+        <v>417</v>
+      </c>
+      <c r="U14" t="s">
+        <v>451</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:21">
       <c r="A15" s="1">
         <v>15</v>
       </c>
@@ -2124,43 +2367,43 @@
         <v>43851</v>
       </c>
       <c r="C15" t="s">
-        <v>22</v>
-      </c>
-      <c r="E15" t="s">
-        <v>70</v>
+        <v>24</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="G15" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="H15" t="s">
-        <v>140</v>
-      </c>
-      <c r="L15" t="s">
-        <v>220</v>
-      </c>
-      <c r="M15" t="s">
-        <v>247</v>
+        <v>146</v>
+      </c>
+      <c r="J15" t="s">
+        <v>194</v>
       </c>
       <c r="N15" t="s">
-        <v>268</v>
+        <v>286</v>
       </c>
       <c r="O15" t="s">
-        <v>296</v>
+        <v>312</v>
+      </c>
+      <c r="P15" t="s">
+        <v>335</v>
       </c>
       <c r="Q15" t="s">
-        <v>340</v>
-      </c>
-      <c r="R15" t="s">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="S15" t="s">
-        <v>380</v>
+        <v>410</v>
+      </c>
+      <c r="T15" t="s">
+        <v>418</v>
+      </c>
+      <c r="U15" t="s">
+        <v>452</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:21">
       <c r="A16" s="1">
         <v>16</v>
       </c>
@@ -2168,43 +2411,43 @@
         <v>43852</v>
       </c>
       <c r="C16" t="s">
-        <v>23</v>
-      </c>
-      <c r="E16" t="s">
-        <v>71</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="G16" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="H16" t="s">
-        <v>141</v>
-      </c>
-      <c r="L16" t="s">
-        <v>220</v>
-      </c>
-      <c r="M16" t="s">
-        <v>248</v>
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
+        <v>195</v>
       </c>
       <c r="N16" t="s">
-        <v>269</v>
+        <v>281</v>
       </c>
       <c r="O16" t="s">
-        <v>297</v>
+        <v>313</v>
+      </c>
+      <c r="P16" t="s">
+        <v>336</v>
       </c>
       <c r="Q16" t="s">
-        <v>341</v>
-      </c>
-      <c r="R16" t="s">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="S16" t="s">
-        <v>381</v>
+        <v>411</v>
+      </c>
+      <c r="T16" t="s">
+        <v>419</v>
+      </c>
+      <c r="U16" t="s">
+        <v>453</v>
       </c>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:21">
       <c r="A17" s="1">
         <v>17</v>
       </c>
@@ -2212,55 +2455,58 @@
         <v>43853</v>
       </c>
       <c r="C17" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
-      </c>
-      <c r="E17" t="s">
-        <v>72</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G17" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="H17" t="s">
-        <v>142</v>
+        <v>148</v>
       </c>
       <c r="I17" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="J17" t="s">
-        <v>20</v>
+        <v>196</v>
       </c>
       <c r="K17" t="s">
-        <v>203</v>
+        <v>218</v>
       </c>
       <c r="L17" t="s">
-        <v>224</v>
+        <v>22</v>
       </c>
       <c r="M17" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="N17" t="s">
-        <v>270</v>
+        <v>136</v>
       </c>
       <c r="O17" t="s">
-        <v>298</v>
+        <v>314</v>
+      </c>
+      <c r="P17" t="s">
+        <v>337</v>
       </c>
       <c r="Q17" t="s">
-        <v>342</v>
-      </c>
-      <c r="R17" t="s">
-        <v>350</v>
+        <v>364</v>
       </c>
       <c r="S17" t="s">
-        <v>382</v>
+        <v>412</v>
+      </c>
+      <c r="T17" t="s">
+        <v>420</v>
+      </c>
+      <c r="U17" t="s">
+        <v>454</v>
       </c>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:21">
       <c r="A18" s="1">
         <v>18</v>
       </c>
@@ -2268,55 +2514,61 @@
         <v>43854</v>
       </c>
       <c r="C18" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E18" t="s">
         <v>73</v>
       </c>
       <c r="F18" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G18" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="H18" t="s">
-        <v>65</v>
+        <v>149</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>91</v>
       </c>
       <c r="K18" t="s">
-        <v>204</v>
+        <v>219</v>
       </c>
       <c r="L18" t="s">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="M18" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="N18" t="s">
-        <v>271</v>
+        <v>287</v>
       </c>
       <c r="O18" t="s">
-        <v>299</v>
+        <v>315</v>
+      </c>
+      <c r="P18" t="s">
+        <v>142</v>
       </c>
       <c r="Q18" t="s">
-        <v>343</v>
-      </c>
-      <c r="R18" t="s">
-        <v>351</v>
+        <v>365</v>
       </c>
       <c r="S18" t="s">
-        <v>383</v>
+        <v>413</v>
+      </c>
+      <c r="T18" t="s">
+        <v>421</v>
+      </c>
+      <c r="U18" t="s">
+        <v>455</v>
       </c>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:21">
       <c r="A19" s="1">
         <v>19</v>
       </c>
@@ -2324,58 +2576,64 @@
         <v>43855</v>
       </c>
       <c r="C19" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D19" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="E19" t="s">
         <v>74</v>
       </c>
       <c r="F19" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="G19" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="H19" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="J19" t="s">
-        <v>183</v>
+        <v>197</v>
       </c>
       <c r="K19" t="s">
-        <v>205</v>
+        <v>220</v>
       </c>
       <c r="L19" t="s">
-        <v>226</v>
+        <v>241</v>
       </c>
       <c r="M19" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="N19" t="s">
-        <v>272</v>
+        <v>288</v>
       </c>
       <c r="O19" t="s">
-        <v>300</v>
+        <v>316</v>
       </c>
       <c r="P19" t="s">
-        <v>316</v>
+        <v>338</v>
       </c>
       <c r="Q19" t="s">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="R19" t="s">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="S19" t="s">
-        <v>384</v>
+        <v>414</v>
+      </c>
+      <c r="T19" t="s">
+        <v>422</v>
+      </c>
+      <c r="U19" t="s">
+        <v>456</v>
       </c>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:21">
       <c r="A20" s="1">
         <v>20</v>
       </c>
@@ -2383,55 +2641,61 @@
         <v>43856</v>
       </c>
       <c r="C20" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="E20" t="s">
         <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="G20" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H20" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="I20" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>184</v>
+        <v>198</v>
       </c>
       <c r="K20" t="s">
-        <v>206</v>
+        <v>221</v>
       </c>
       <c r="L20" t="s">
-        <v>227</v>
+        <v>242</v>
       </c>
       <c r="M20" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="N20" t="s">
-        <v>273</v>
+        <v>289</v>
       </c>
       <c r="O20" t="s">
-        <v>301</v>
+        <v>317</v>
       </c>
       <c r="P20" t="s">
-        <v>317</v>
+        <v>339</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>367</v>
       </c>
       <c r="R20" t="s">
-        <v>353</v>
-      </c>
-      <c r="S20" t="s">
         <v>385</v>
       </c>
+      <c r="T20" t="s">
+        <v>423</v>
+      </c>
+      <c r="U20" t="s">
+        <v>457</v>
+      </c>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:21">
       <c r="A21" s="1">
         <v>21</v>
       </c>
@@ -2439,55 +2703,61 @@
         <v>43857</v>
       </c>
       <c r="C21" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D21" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="E21" t="s">
         <v>76</v>
       </c>
       <c r="F21" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="G21" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="H21" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="I21" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="J21" t="s">
-        <v>185</v>
+        <v>199</v>
       </c>
       <c r="K21" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
       <c r="L21" t="s">
-        <v>228</v>
+        <v>243</v>
       </c>
       <c r="M21" t="s">
-        <v>253</v>
+        <v>267</v>
       </c>
       <c r="N21" t="s">
-        <v>274</v>
+        <v>290</v>
       </c>
       <c r="O21" t="s">
-        <v>302</v>
+        <v>318</v>
       </c>
       <c r="P21" t="s">
-        <v>318</v>
+        <v>340</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>368</v>
       </c>
       <c r="R21" t="s">
-        <v>354</v>
-      </c>
-      <c r="S21" t="s">
         <v>386</v>
       </c>
+      <c r="T21" t="s">
+        <v>424</v>
+      </c>
+      <c r="U21" t="s">
+        <v>458</v>
+      </c>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:21">
       <c r="A22" s="1">
         <v>22</v>
       </c>
@@ -2495,55 +2765,61 @@
         <v>43858</v>
       </c>
       <c r="C22" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D22" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="E22" t="s">
         <v>77</v>
       </c>
       <c r="F22" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G22" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="H22" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="I22" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
+        <v>200</v>
       </c>
       <c r="K22" t="s">
-        <v>208</v>
+        <v>223</v>
       </c>
       <c r="L22" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="M22" t="s">
-        <v>254</v>
+        <v>268</v>
       </c>
       <c r="N22" t="s">
-        <v>275</v>
+        <v>291</v>
       </c>
       <c r="O22" t="s">
-        <v>303</v>
+        <v>319</v>
       </c>
       <c r="P22" t="s">
-        <v>319</v>
+        <v>341</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>369</v>
       </c>
       <c r="R22" t="s">
-        <v>355</v>
-      </c>
-      <c r="S22" t="s">
         <v>387</v>
       </c>
+      <c r="T22" t="s">
+        <v>425</v>
+      </c>
+      <c r="U22" t="s">
+        <v>459</v>
+      </c>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:21">
       <c r="A23" s="1">
         <v>23</v>
       </c>
@@ -2551,55 +2827,61 @@
         <v>43859</v>
       </c>
       <c r="C23" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="E23" t="s">
         <v>78</v>
       </c>
       <c r="F23" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G23" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="H23" t="s">
-        <v>45</v>
+        <v>154</v>
       </c>
       <c r="I23" t="s">
-        <v>168</v>
+        <v>177</v>
       </c>
       <c r="J23" t="s">
-        <v>187</v>
+        <v>49</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>224</v>
       </c>
       <c r="L23" t="s">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="M23" t="s">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="N23" t="s">
-        <v>276</v>
+        <v>292</v>
       </c>
       <c r="O23" t="s">
-        <v>304</v>
+        <v>320</v>
       </c>
       <c r="P23" t="s">
-        <v>320</v>
+        <v>342</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>370</v>
       </c>
       <c r="R23" t="s">
-        <v>356</v>
-      </c>
-      <c r="S23" t="s">
         <v>388</v>
       </c>
+      <c r="T23" t="s">
+        <v>426</v>
+      </c>
+      <c r="U23" t="s">
+        <v>460</v>
+      </c>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:21">
       <c r="A24" s="1">
         <v>24</v>
       </c>
@@ -2607,55 +2889,61 @@
         <v>43860</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="E24" t="s">
         <v>79</v>
       </c>
       <c r="F24" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="G24" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="H24" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="I24" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="J24" t="s">
-        <v>188</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>210</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="M24" t="s">
-        <v>255</v>
+        <v>270</v>
       </c>
       <c r="N24" t="s">
-        <v>277</v>
+        <v>293</v>
       </c>
       <c r="O24" t="s">
-        <v>305</v>
+        <v>320</v>
       </c>
       <c r="P24" t="s">
-        <v>321</v>
+        <v>343</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>371</v>
       </c>
       <c r="R24" t="s">
-        <v>357</v>
-      </c>
-      <c r="S24" t="s">
         <v>389</v>
       </c>
+      <c r="T24" t="s">
+        <v>427</v>
+      </c>
+      <c r="U24" t="s">
+        <v>461</v>
+      </c>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:21">
       <c r="A25" s="1">
         <v>25</v>
       </c>
@@ -2663,55 +2951,61 @@
         <v>43861</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="E25" t="s">
         <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G25" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="H25" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
       <c r="I25" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>189</v>
+        <v>202</v>
       </c>
       <c r="K25" t="s">
-        <v>211</v>
+        <v>226</v>
       </c>
       <c r="L25" t="s">
-        <v>232</v>
+        <v>247</v>
       </c>
       <c r="M25" t="s">
-        <v>255</v>
+        <v>271</v>
       </c>
       <c r="N25" t="s">
-        <v>278</v>
+        <v>294</v>
       </c>
       <c r="O25" t="s">
-        <v>306</v>
+        <v>320</v>
       </c>
       <c r="P25" t="s">
-        <v>322</v>
+        <v>344</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>372</v>
       </c>
       <c r="R25" t="s">
-        <v>358</v>
-      </c>
-      <c r="S25" t="s">
         <v>390</v>
       </c>
+      <c r="T25" t="s">
+        <v>428</v>
+      </c>
+      <c r="U25" t="s">
+        <v>462</v>
+      </c>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:21">
       <c r="A26" s="1">
         <v>26</v>
       </c>
@@ -2719,55 +3013,61 @@
         <v>43862</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D26" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="E26" t="s">
         <v>81</v>
       </c>
       <c r="F26" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="G26" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
       <c r="H26" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
       <c r="I26" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="J26" t="s">
-        <v>173</v>
+        <v>203</v>
       </c>
       <c r="K26" t="s">
-        <v>212</v>
+        <v>227</v>
       </c>
       <c r="L26" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="M26" t="s">
-        <v>256</v>
+        <v>272</v>
       </c>
       <c r="N26" t="s">
-        <v>279</v>
+        <v>295</v>
       </c>
       <c r="O26" t="s">
-        <v>307</v>
+        <v>321</v>
       </c>
       <c r="P26" t="s">
-        <v>323</v>
+        <v>345</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>373</v>
       </c>
       <c r="R26" t="s">
-        <v>359</v>
-      </c>
-      <c r="S26" t="s">
         <v>391</v>
       </c>
+      <c r="T26" t="s">
+        <v>429</v>
+      </c>
+      <c r="U26" t="s">
+        <v>463</v>
+      </c>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:21">
       <c r="A27" s="1">
         <v>27</v>
       </c>
@@ -2775,55 +3075,61 @@
         <v>43863</v>
       </c>
       <c r="C27" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E27" t="s">
         <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G27" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="H27" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
       <c r="I27" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="J27" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="K27" t="s">
-        <v>213</v>
+        <v>228</v>
       </c>
       <c r="L27" t="s">
-        <v>234</v>
+        <v>248</v>
       </c>
       <c r="M27" t="s">
-        <v>257</v>
+        <v>273</v>
       </c>
       <c r="N27" t="s">
-        <v>280</v>
+        <v>296</v>
       </c>
       <c r="O27" t="s">
-        <v>308</v>
+        <v>322</v>
       </c>
       <c r="P27" t="s">
-        <v>324</v>
+        <v>346</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>374</v>
       </c>
       <c r="R27" t="s">
-        <v>360</v>
-      </c>
-      <c r="S27" t="s">
         <v>392</v>
       </c>
+      <c r="T27" t="s">
+        <v>430</v>
+      </c>
+      <c r="U27" t="s">
+        <v>464</v>
+      </c>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:21">
       <c r="A28" s="1">
         <v>28</v>
       </c>
@@ -2831,55 +3137,61 @@
         <v>43864</v>
       </c>
       <c r="C28" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D28" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
         <v>83</v>
       </c>
       <c r="F28" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G28" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="H28" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
       <c r="I28" t="s">
-        <v>173</v>
+        <v>182</v>
       </c>
       <c r="J28" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="K28" t="s">
-        <v>214</v>
+        <v>229</v>
       </c>
       <c r="L28" t="s">
-        <v>235</v>
+        <v>249</v>
       </c>
       <c r="M28" t="s">
-        <v>258</v>
+        <v>274</v>
       </c>
       <c r="N28" t="s">
-        <v>281</v>
+        <v>297</v>
       </c>
       <c r="O28" t="s">
-        <v>309</v>
+        <v>323</v>
       </c>
       <c r="P28" t="s">
-        <v>325</v>
+        <v>347</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>375</v>
       </c>
       <c r="R28" t="s">
-        <v>361</v>
-      </c>
-      <c r="S28" t="s">
         <v>393</v>
       </c>
+      <c r="T28" t="s">
+        <v>431</v>
+      </c>
+      <c r="U28" t="s">
+        <v>465</v>
+      </c>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:21">
       <c r="A29" s="1">
         <v>29</v>
       </c>
@@ -2887,55 +3199,61 @@
         <v>43865</v>
       </c>
       <c r="C29" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D29" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F29" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G29" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H29" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
       <c r="I29" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="J29" t="s">
-        <v>192</v>
+        <v>206</v>
       </c>
       <c r="K29" t="s">
-        <v>215</v>
+        <v>230</v>
       </c>
       <c r="L29" t="s">
-        <v>236</v>
+        <v>250</v>
       </c>
       <c r="M29" t="s">
-        <v>259</v>
+        <v>275</v>
       </c>
       <c r="N29" t="s">
-        <v>282</v>
+        <v>298</v>
       </c>
       <c r="O29" t="s">
-        <v>310</v>
+        <v>324</v>
       </c>
       <c r="P29" t="s">
-        <v>326</v>
+        <v>348</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>376</v>
       </c>
       <c r="R29" t="s">
-        <v>362</v>
-      </c>
-      <c r="S29" t="s">
         <v>394</v>
       </c>
+      <c r="T29" t="s">
+        <v>432</v>
+      </c>
+      <c r="U29" t="s">
+        <v>466</v>
+      </c>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:21">
       <c r="A30" s="1">
         <v>30</v>
       </c>
@@ -2943,55 +3261,61 @@
         <v>43866</v>
       </c>
       <c r="C30" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E30" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F30" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="G30" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
       <c r="I30" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
       <c r="J30" t="s">
-        <v>193</v>
+        <v>207</v>
       </c>
       <c r="K30" t="s">
-        <v>216</v>
+        <v>231</v>
       </c>
       <c r="L30" t="s">
-        <v>237</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s">
-        <v>259</v>
+        <v>276</v>
       </c>
       <c r="N30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="O30" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="P30" t="s">
-        <v>327</v>
+        <v>142</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>377</v>
       </c>
       <c r="R30" t="s">
-        <v>363</v>
-      </c>
-      <c r="S30" t="s">
         <v>395</v>
       </c>
+      <c r="T30" t="s">
+        <v>433</v>
+      </c>
+      <c r="U30" t="s">
+        <v>467</v>
+      </c>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:21">
       <c r="A31" s="1">
         <v>31</v>
       </c>
@@ -2999,55 +3323,61 @@
         <v>43867</v>
       </c>
       <c r="C31" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D31" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="E31" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F31" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G31" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="H31" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
       <c r="I31" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J31" t="s">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="K31" t="s">
-        <v>217</v>
+        <v>232</v>
       </c>
       <c r="L31" t="s">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="M31" t="s">
-        <v>247</v>
+        <v>277</v>
       </c>
       <c r="N31" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="O31" t="s">
         <v>312</v>
       </c>
       <c r="P31" t="s">
-        <v>328</v>
+        <v>349</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>378</v>
       </c>
       <c r="R31" t="s">
-        <v>364</v>
-      </c>
-      <c r="S31" t="s">
         <v>396</v>
       </c>
+      <c r="T31" t="s">
+        <v>434</v>
+      </c>
+      <c r="U31" t="s">
+        <v>468</v>
+      </c>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:21">
       <c r="A32" s="1">
         <v>32</v>
       </c>
@@ -3055,55 +3385,61 @@
         <v>43868</v>
       </c>
       <c r="C32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D32" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="E32" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="G32" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="H32" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
       <c r="I32" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="J32" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
       <c r="K32" t="s">
-        <v>218</v>
+        <v>233</v>
       </c>
       <c r="L32" t="s">
-        <v>239</v>
+        <v>253</v>
       </c>
       <c r="M32" t="s">
-        <v>260</v>
+        <v>278</v>
       </c>
       <c r="N32" t="s">
-        <v>113</v>
+        <v>259</v>
       </c>
       <c r="O32" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="P32" t="s">
-        <v>329</v>
+        <v>141</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>379</v>
       </c>
       <c r="R32" t="s">
-        <v>365</v>
-      </c>
-      <c r="S32" t="s">
         <v>397</v>
       </c>
+      <c r="T32" t="s">
+        <v>435</v>
+      </c>
+      <c r="U32" t="s">
+        <v>469</v>
+      </c>
     </row>
-    <row r="33" spans="1:19">
+    <row r="33" spans="1:21">
       <c r="A33" s="1">
         <v>33</v>
       </c>
@@ -3111,55 +3447,61 @@
         <v>43869</v>
       </c>
       <c r="C33" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D33" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E33" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F33" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G33" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="H33" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
       <c r="I33" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="J33" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
       <c r="K33" t="s">
-        <v>219</v>
+        <v>234</v>
       </c>
       <c r="L33" t="s">
-        <v>221</v>
+        <v>254</v>
       </c>
       <c r="M33" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="N33" t="s">
-        <v>284</v>
+        <v>301</v>
       </c>
       <c r="O33" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="P33" t="s">
-        <v>330</v>
+        <v>350</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>380</v>
       </c>
       <c r="R33" t="s">
-        <v>366</v>
-      </c>
-      <c r="S33" t="s">
         <v>398</v>
       </c>
+      <c r="T33" t="s">
+        <v>436</v>
+      </c>
+      <c r="U33" t="s">
+        <v>470</v>
+      </c>
     </row>
-    <row r="34" spans="1:19">
+    <row r="34" spans="1:21">
       <c r="A34" s="1">
         <v>34</v>
       </c>
@@ -3167,52 +3509,198 @@
         <v>43870</v>
       </c>
       <c r="C34" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D34" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="E34" t="s">
+        <v>88</v>
+      </c>
+      <c r="F34" t="s">
+        <v>115</v>
+      </c>
+      <c r="G34" t="s">
+        <v>141</v>
+      </c>
+      <c r="H34" t="s">
+        <v>165</v>
+      </c>
+      <c r="I34" t="s">
+        <v>187</v>
+      </c>
+      <c r="J34" t="s">
+        <v>211</v>
+      </c>
+      <c r="K34" t="s">
+        <v>235</v>
+      </c>
+      <c r="L34" t="s">
+        <v>255</v>
+      </c>
+      <c r="M34" t="s">
+        <v>132</v>
+      </c>
+      <c r="N34" t="s">
+        <v>302</v>
+      </c>
+      <c r="O34" t="s">
+        <v>327</v>
+      </c>
+      <c r="P34" t="s">
+        <v>351</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>381</v>
+      </c>
+      <c r="R34" t="s">
+        <v>399</v>
+      </c>
+      <c r="T34" t="s">
+        <v>437</v>
+      </c>
+      <c r="U34" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="2">
+        <v>43871</v>
+      </c>
+      <c r="C35" t="s">
+        <v>44</v>
+      </c>
+      <c r="D35" t="s">
+        <v>69</v>
+      </c>
+      <c r="E35" t="s">
         <v>89</v>
       </c>
-      <c r="F34" t="s">
-        <v>113</v>
-      </c>
-      <c r="G34" t="s">
-        <v>135</v>
-      </c>
-      <c r="H34" t="s">
-        <v>157</v>
-      </c>
-      <c r="I34" t="s">
-        <v>179</v>
-      </c>
-      <c r="J34" t="s">
-        <v>197</v>
-      </c>
-      <c r="K34" t="s">
-        <v>104</v>
-      </c>
-      <c r="L34" t="s">
-        <v>221</v>
-      </c>
-      <c r="M34" t="s">
-        <v>262</v>
-      </c>
-      <c r="N34" t="s">
-        <v>285</v>
-      </c>
-      <c r="O34" t="s">
-        <v>315</v>
-      </c>
-      <c r="P34" t="s">
-        <v>331</v>
-      </c>
-      <c r="R34" t="s">
-        <v>367</v>
-      </c>
-      <c r="S34" t="s">
-        <v>399</v>
+      <c r="F35" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" t="s">
+        <v>142</v>
+      </c>
+      <c r="H35" t="s">
+        <v>166</v>
+      </c>
+      <c r="I35" t="s">
+        <v>188</v>
+      </c>
+      <c r="J35" t="s">
+        <v>212</v>
+      </c>
+      <c r="K35" t="s">
+        <v>236</v>
+      </c>
+      <c r="L35" t="s">
+        <v>256</v>
+      </c>
+      <c r="M35" t="s">
+        <v>280</v>
+      </c>
+      <c r="N35" t="s">
+        <v>303</v>
+      </c>
+      <c r="O35" t="s">
+        <v>328</v>
+      </c>
+      <c r="P35" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>382</v>
+      </c>
+      <c r="R35" t="s">
+        <v>400</v>
+      </c>
+      <c r="T35" t="s">
+        <v>438</v>
+      </c>
+      <c r="U35" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="2">
+        <v>43872</v>
+      </c>
+      <c r="C36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E36" t="s">
+        <v>90</v>
+      </c>
+      <c r="F36" t="s">
+        <v>117</v>
+      </c>
+      <c r="G36" t="s">
+        <v>143</v>
+      </c>
+      <c r="H36" t="s">
+        <v>167</v>
+      </c>
+      <c r="I36" t="s">
+        <v>189</v>
+      </c>
+      <c r="J36" t="s">
+        <v>213</v>
+      </c>
+      <c r="K36" t="s">
+        <v>237</v>
+      </c>
+      <c r="L36" t="s">
+        <v>257</v>
+      </c>
+      <c r="M36" t="s">
+        <v>136</v>
+      </c>
+      <c r="N36" t="s">
+        <v>304</v>
+      </c>
+      <c r="O36" t="s">
+        <v>329</v>
+      </c>
+      <c r="P36" t="s">
+        <v>303</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>383</v>
+      </c>
+      <c r="R36" t="s">
+        <v>401</v>
+      </c>
+      <c r="T36" t="s">
+        <v>439</v>
+      </c>
+      <c r="U36" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="2">
+        <v>43873</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="2">
+        <v>43874</v>
       </c>
     </row>
   </sheetData>

--- a/coronaVirusData.xlsx
+++ b/coronaVirusData.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="534" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="578">
   <si>
     <t>Date</t>
   </si>
@@ -154,588 +154,775 @@
     <t>16,067</t>
   </si>
   <si>
-    <t>40</t>
+    <t>13,435</t>
+  </si>
+  <si>
+    <t>10,109</t>
+  </si>
+  <si>
+    <t>8,969</t>
+  </si>
+  <si>
+    <t>8,228</t>
+  </si>
+  <si>
+    <t>7,264</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>41</t>
+  </si>
+  <si>
+    <t>94</t>
+  </si>
+  <si>
+    <t>170</t>
+  </si>
+  <si>
+    <t>260</t>
+  </si>
+  <si>
+    <t>771</t>
+  </si>
+  <si>
+    <t>1,208</t>
+  </si>
+  <si>
+    <t>1,870</t>
+  </si>
+  <si>
+    <t>2,613</t>
+  </si>
+  <si>
+    <t>4,349</t>
+  </si>
+  <si>
+    <t>5,739</t>
+  </si>
+  <si>
+    <t>7,417</t>
+  </si>
+  <si>
+    <t>9,308</t>
+  </si>
+  <si>
+    <t>11,289</t>
+  </si>
+  <si>
+    <t>13,748</t>
+  </si>
+  <si>
+    <t>16,369</t>
+  </si>
+  <si>
+    <t>19,383</t>
+  </si>
+  <si>
+    <t>22,942</t>
+  </si>
+  <si>
+    <t>26,302</t>
+  </si>
+  <si>
+    <t>28,985</t>
+  </si>
+  <si>
+    <t>31,774</t>
+  </si>
+  <si>
+    <t>33,738</t>
+  </si>
+  <si>
+    <t>35,982</t>
+  </si>
+  <si>
+    <t>37,626</t>
+  </si>
+  <si>
+    <t>38,800</t>
+  </si>
+  <si>
+    <t>52,526</t>
+  </si>
+  <si>
+    <t>55,748</t>
+  </si>
+  <si>
+    <t>56,873</t>
+  </si>
+  <si>
+    <t>57,416</t>
+  </si>
+  <si>
+    <t>57,934</t>
+  </si>
+  <si>
+    <t>-10.5%</t>
+  </si>
+  <si>
+    <t>-2.9%</t>
+  </si>
+  <si>
+    <t>0.0%</t>
+  </si>
+  <si>
+    <t>-18.2%</t>
+  </si>
+  <si>
+    <t>3.7%</t>
+  </si>
+  <si>
+    <t>46.4%</t>
+  </si>
+  <si>
+    <t>129.3%</t>
+  </si>
+  <si>
+    <t>80.9%</t>
+  </si>
+  <si>
+    <t>52.9%</t>
+  </si>
+  <si>
+    <t>56.7%</t>
+  </si>
+  <si>
+    <t>54.8%</t>
+  </si>
+  <si>
+    <t>39.7%</t>
+  </si>
+  <si>
+    <t>66.4%</t>
+  </si>
+  <si>
+    <t>32.0%</t>
+  </si>
+  <si>
+    <t>29.2%</t>
+  </si>
+  <si>
+    <t>25.5%</t>
+  </si>
+  <si>
+    <t>21.3%</t>
+  </si>
+  <si>
+    <t>21.8%</t>
+  </si>
+  <si>
+    <t>19.1%</t>
+  </si>
+  <si>
+    <t>18.4%</t>
+  </si>
+  <si>
+    <t>14.6%</t>
+  </si>
+  <si>
+    <t>10.2%</t>
+  </si>
+  <si>
+    <t>9.6%</t>
+  </si>
+  <si>
+    <t>6.2%</t>
+  </si>
+  <si>
+    <t>6.7%</t>
+  </si>
+  <si>
+    <t>4.6%</t>
+  </si>
+  <si>
+    <t>3.1%</t>
+  </si>
+  <si>
+    <t>35.4%
+[note 4]</t>
+  </si>
+  <si>
+    <t>6.1%</t>
+  </si>
+  <si>
+    <t>2.0%</t>
+  </si>
+  <si>
+    <t>1.0%</t>
+  </si>
+  <si>
+    <t>0.9%</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>62</t>
+  </si>
+  <si>
+    <t>121</t>
+  </si>
+  <si>
+    <t>198</t>
+  </si>
+  <si>
+    <t>291</t>
+  </si>
+  <si>
+    <t>440</t>
+  </si>
+  <si>
+    <t>571</t>
+  </si>
+  <si>
+    <t>830</t>
+  </si>
+  <si>
+    <t>1,287</t>
+  </si>
+  <si>
+    <t>1,975</t>
+  </si>
+  <si>
+    <t>2,744</t>
+  </si>
+  <si>
+    <t>4,515</t>
+  </si>
+  <si>
+    <t>5,974</t>
+  </si>
+  <si>
+    <t>7,711</t>
+  </si>
+  <si>
+    <t>9,692</t>
+  </si>
+  <si>
+    <t>11,791</t>
+  </si>
+  <si>
+    <t>14,380</t>
+  </si>
+  <si>
+    <t>17,205</t>
+  </si>
+  <si>
+    <t>20,440</t>
+  </si>
+  <si>
+    <t>24,324</t>
+  </si>
+  <si>
+    <t>28,018</t>
+  </si>
+  <si>
+    <t>31,161</t>
+  </si>
+  <si>
+    <t>34,546</t>
+  </si>
+  <si>
+    <t>37,198</t>
+  </si>
+  <si>
+    <t>40,171</t>
+  </si>
+  <si>
+    <t>42,638</t>
+  </si>
+  <si>
+    <t>44,653</t>
+  </si>
+  <si>
+    <t>59,804
+[note 4]</t>
+  </si>
+  <si>
+    <t>63,851</t>
+  </si>
+  <si>
+    <t>66,492</t>
+  </si>
+  <si>
+    <t>68,500</t>
+  </si>
+  <si>
+    <t>70,548</t>
+  </si>
+  <si>
+    <t>9.8%</t>
+  </si>
+  <si>
+    <t>37.8%</t>
+  </si>
+  <si>
+    <t>95.2%</t>
+  </si>
+  <si>
+    <t>63.6%</t>
+  </si>
+  <si>
+    <t>47.0%</t>
+  </si>
+  <si>
+    <t>51.2%</t>
+  </si>
+  <si>
+    <t>29.8%</t>
+  </si>
+  <si>
+    <t>45.4%</t>
+  </si>
+  <si>
+    <t>55.1%</t>
+  </si>
+  <si>
+    <t>53.5%</t>
+  </si>
+  <si>
+    <t>38.9%</t>
+  </si>
+  <si>
+    <t>64.5%</t>
+  </si>
+  <si>
+    <t>32.3%</t>
+  </si>
+  <si>
+    <t>29.1%</t>
+  </si>
+  <si>
+    <t>25.7%</t>
+  </si>
+  <si>
+    <t>21.7%</t>
+  </si>
+  <si>
+    <t>22.0%</t>
+  </si>
+  <si>
+    <t>19.6%</t>
+  </si>
+  <si>
+    <t>18.8%</t>
+  </si>
+  <si>
+    <t>19.0%</t>
+  </si>
+  <si>
+    <t>15.1%</t>
+  </si>
+  <si>
+    <t>11.2%</t>
+  </si>
+  <si>
+    <t>10.9%</t>
+  </si>
+  <si>
+    <t>7.7%</t>
+  </si>
+  <si>
+    <t>8.0%</t>
+  </si>
+  <si>
+    <t>4.7%</t>
+  </si>
+  <si>
+    <t>33.9%
+[note 4]</t>
+  </si>
+  <si>
+    <t>6.8%</t>
+  </si>
+  <si>
+    <t>4.1%</t>
+  </si>
+  <si>
+    <t>3.0%</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>63</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t>95</t>
+  </si>
+  <si>
+    <t>177</t>
+  </si>
+  <si>
+    <t>237</t>
+  </si>
+  <si>
+    <t>324</t>
+  </si>
+  <si>
+    <t>461</t>
+  </si>
+  <si>
+    <t>976</t>
+  </si>
+  <si>
+    <t>1,239</t>
+  </si>
+  <si>
+    <t>1,370</t>
+  </si>
+  <si>
+    <t>1,527</t>
+  </si>
+  <si>
+    <t>1,795</t>
+  </si>
+  <si>
+    <t>2,110</t>
+  </si>
+  <si>
+    <t>2,296</t>
+  </si>
+  <si>
+    <t>2,788</t>
+  </si>
+  <si>
+    <t>3,219</t>
+  </si>
+  <si>
+    <t>3,859</t>
+  </si>
+  <si>
+    <t>4,821</t>
+  </si>
+  <si>
+    <t>6,101</t>
+  </si>
+  <si>
+    <t>6,188</t>
+  </si>
+  <si>
+    <t>6,484</t>
+  </si>
+  <si>
+    <t>7,333</t>
+  </si>
+  <si>
+    <t>8,204</t>
+  </si>
+  <si>
+    <t>8,030</t>
+  </si>
+  <si>
+    <t>10,204</t>
+  </si>
+  <si>
+    <t>11,053</t>
+  </si>
+  <si>
+    <t>11,272</t>
+  </si>
+  <si>
+    <t>10,644</t>
+  </si>
+  <si>
+    <t>17.50%</t>
+  </si>
+  <si>
+    <t>15.00%</t>
+  </si>
+  <si>
+    <t>18.18%</t>
+  </si>
+  <si>
+    <t>18.52%</t>
+  </si>
+  <si>
+    <t>17.86%</t>
+  </si>
+  <si>
+    <t>19.51%</t>
+  </si>
+  <si>
+    <t>7.4%</t>
+  </si>
+  <si>
+    <t>25.9%</t>
+  </si>
+  <si>
+    <t>24.2%</t>
+  </si>
+  <si>
+    <t>22.96%</t>
+  </si>
+  <si>
+    <t>19.62%</t>
+  </si>
+  <si>
+    <t>17.33%</t>
+  </si>
+  <si>
+    <t>17.64%</t>
+  </si>
+  <si>
+    <t>22.44%</t>
+  </si>
+  <si>
+    <t>21.59%</t>
+  </si>
+  <si>
+    <t>18.47%</t>
+  </si>
+  <si>
+    <t>16.41%</t>
+  </si>
+  <si>
+    <t>15.90%</t>
+  </si>
+  <si>
+    <t>15.35%</t>
+  </si>
+  <si>
+    <t>14.03%</t>
+  </si>
+  <si>
+    <t>14.38%</t>
+  </si>
+  <si>
+    <t>14.67%</t>
+  </si>
+  <si>
+    <t>16.63%</t>
+  </si>
+  <si>
+    <t>19.20%</t>
+  </si>
+  <si>
+    <t>18.34%</t>
+  </si>
+  <si>
+    <t>18.02%</t>
+  </si>
+  <si>
+    <t>19.49%</t>
+  </si>
+  <si>
+    <t>21.14%</t>
+  </si>
+  <si>
+    <t>15.29%</t>
+  </si>
+  <si>
+    <t>18.30%</t>
+  </si>
+  <si>
+    <t>19.4%</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>56</t>
+  </si>
+  <si>
+    <t>80</t>
+  </si>
+  <si>
+    <t>106</t>
+  </si>
+  <si>
+    <t>132</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>259</t>
+  </si>
+  <si>
+    <t>304</t>
+  </si>
+  <si>
+    <t>361</t>
+  </si>
+  <si>
+    <t>425</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>563</t>
+  </si>
+  <si>
+    <t>637</t>
+  </si>
+  <si>
+    <t>722</t>
+  </si>
+  <si>
+    <t>811</t>
+  </si>
+  <si>
+    <t>908</t>
+  </si>
+  <si>
+    <t>1,016</t>
+  </si>
+  <si>
+    <t>1,113</t>
+  </si>
+  <si>
+    <t>1,259
+[note 5]</t>
+  </si>
+  <si>
+    <t>1,380</t>
+  </si>
+  <si>
+    <t>1,523</t>
+  </si>
+  <si>
+    <t>1,665</t>
+  </si>
+  <si>
+    <t>1,770</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>49</t>
+  </si>
+  <si>
+    <t>51</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>124</t>
+  </si>
+  <si>
+    <t>171</t>
+  </si>
+  <si>
+    <t>243</t>
+  </si>
+  <si>
+    <t>328</t>
+  </si>
+  <si>
+    <t>475</t>
+  </si>
+  <si>
+    <t>632</t>
+  </si>
+  <si>
+    <t>892</t>
+  </si>
+  <si>
+    <t>1,153</t>
+  </si>
+  <si>
+    <t>1,540</t>
+  </si>
+  <si>
+    <t>2,050</t>
+  </si>
+  <si>
+    <t>2,649</t>
+  </si>
+  <si>
+    <t>3,281</t>
+  </si>
+  <si>
+    <t>3,996</t>
+  </si>
+  <si>
+    <t>4,749</t>
+  </si>
+  <si>
+    <t>5,911</t>
+  </si>
+  <si>
+    <t>6,723</t>
+  </si>
+  <si>
+    <t>8,096</t>
+  </si>
+  <si>
+    <t>9,419</t>
+  </si>
+  <si>
+    <t>10,844</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>21</t>
   </si>
   <si>
     <t>31</t>
   </si>
   <si>
-    <t>45</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
-    <t>260</t>
-  </si>
-  <si>
-    <t>771</t>
-  </si>
-  <si>
-    <t>1,208</t>
-  </si>
-  <si>
-    <t>1,870</t>
-  </si>
-  <si>
-    <t>2,613</t>
-  </si>
-  <si>
-    <t>4,349</t>
-  </si>
-  <si>
-    <t>5,739</t>
-  </si>
-  <si>
-    <t>7,417</t>
-  </si>
-  <si>
-    <t>9,308</t>
-  </si>
-  <si>
-    <t>11,289</t>
-  </si>
-  <si>
-    <t>13,748</t>
-  </si>
-  <si>
-    <t>16,369</t>
-  </si>
-  <si>
-    <t>19,383</t>
-  </si>
-  <si>
-    <t>22,942</t>
-  </si>
-  <si>
-    <t>26,302</t>
-  </si>
-  <si>
-    <t>28,985</t>
-  </si>
-  <si>
-    <t>31,774</t>
-  </si>
-  <si>
-    <t>33,738</t>
-  </si>
-  <si>
-    <t>35,982</t>
-  </si>
-  <si>
-    <t>37,626</t>
-  </si>
-  <si>
-    <t>38,800</t>
-  </si>
-  <si>
-    <t>45.2%</t>
-  </si>
-  <si>
-    <t>52.9%</t>
-  </si>
-  <si>
-    <t>56.7%</t>
-  </si>
-  <si>
-    <t>54.8%</t>
-  </si>
-  <si>
-    <t>39.7%</t>
-  </si>
-  <si>
-    <t>66.4%</t>
-  </si>
-  <si>
-    <t>32.0%</t>
-  </si>
-  <si>
-    <t>29.2%</t>
-  </si>
-  <si>
-    <t>25.5%</t>
-  </si>
-  <si>
-    <t>21.3%</t>
-  </si>
-  <si>
-    <t>21.8%</t>
-  </si>
-  <si>
-    <t>19.1%</t>
-  </si>
-  <si>
-    <t>18.4%</t>
-  </si>
-  <si>
-    <t>14.6%</t>
-  </si>
-  <si>
-    <t>10.2%</t>
-  </si>
-  <si>
-    <t>9.6%</t>
-  </si>
-  <si>
-    <t>6.2%</t>
-  </si>
-  <si>
-    <t>6.7%</t>
-  </si>
-  <si>
-    <t>4.6%</t>
-  </si>
-  <si>
-    <t>3.1%</t>
-  </si>
-  <si>
-    <t>41</t>
-  </si>
-  <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>121</t>
-  </si>
-  <si>
-    <t>198</t>
-  </si>
-  <si>
-    <t>291</t>
-  </si>
-  <si>
-    <t>440</t>
-  </si>
-  <si>
-    <t>571</t>
-  </si>
-  <si>
-    <t>830</t>
-  </si>
-  <si>
-    <t>1,287</t>
-  </si>
-  <si>
-    <t>1,975</t>
-  </si>
-  <si>
-    <t>2,744</t>
-  </si>
-  <si>
-    <t>4,515</t>
-  </si>
-  <si>
-    <t>5,974</t>
-  </si>
-  <si>
-    <t>7,711</t>
-  </si>
-  <si>
-    <t>9,692</t>
-  </si>
-  <si>
-    <t>11,791</t>
-  </si>
-  <si>
-    <t>14,380</t>
-  </si>
-  <si>
-    <t>17,205</t>
-  </si>
-  <si>
-    <t>20,440</t>
-  </si>
-  <si>
-    <t>24,324</t>
-  </si>
-  <si>
-    <t>28,018</t>
-  </si>
-  <si>
-    <t>31,161</t>
-  </si>
-  <si>
-    <t>34,546</t>
-  </si>
-  <si>
-    <t>37,198</t>
-  </si>
-  <si>
-    <t>40,171</t>
-  </si>
-  <si>
-    <t>42,638</t>
-  </si>
-  <si>
-    <t>44,653</t>
-  </si>
-  <si>
-    <t>37.8%</t>
-  </si>
-  <si>
-    <t>95.2%</t>
-  </si>
-  <si>
-    <t>63.6%</t>
-  </si>
-  <si>
-    <t>47.0%</t>
-  </si>
-  <si>
-    <t>51.2%</t>
-  </si>
-  <si>
-    <t>29.8%</t>
-  </si>
-  <si>
-    <t>45.4%</t>
-  </si>
-  <si>
-    <t>55.1%</t>
-  </si>
-  <si>
-    <t>53.5%</t>
-  </si>
-  <si>
-    <t>38.9%</t>
-  </si>
-  <si>
-    <t>64.5%</t>
-  </si>
-  <si>
-    <t>32.3%</t>
-  </si>
-  <si>
-    <t>29.1%</t>
-  </si>
-  <si>
-    <t>25.7%</t>
-  </si>
-  <si>
-    <t>21.7%</t>
-  </si>
-  <si>
-    <t>22.0%</t>
-  </si>
-  <si>
-    <t>19.6%</t>
-  </si>
-  <si>
-    <t>18.8%</t>
-  </si>
-  <si>
-    <t>19.0%</t>
-  </si>
-  <si>
-    <t>15.1%</t>
-  </si>
-  <si>
-    <t>11.2%</t>
-  </si>
-  <si>
-    <t>10.9%</t>
-  </si>
-  <si>
-    <t>7.7%</t>
-  </si>
-  <si>
-    <t>8.0%</t>
-  </si>
-  <si>
-    <t>6.1%</t>
-  </si>
-  <si>
-    <t>4.7%</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>102</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>177</t>
-  </si>
-  <si>
-    <t>237</t>
-  </si>
-  <si>
-    <t>324</t>
-  </si>
-  <si>
-    <t>461</t>
-  </si>
-  <si>
-    <t>976</t>
-  </si>
-  <si>
-    <t>1,239</t>
-  </si>
-  <si>
-    <t>1,370</t>
-  </si>
-  <si>
-    <t>1,527</t>
-  </si>
-  <si>
-    <t>1,795</t>
-  </si>
-  <si>
-    <t>2,110</t>
-  </si>
-  <si>
-    <t>2,296</t>
-  </si>
-  <si>
-    <t>2,788</t>
-  </si>
-  <si>
-    <t>3,219</t>
-  </si>
-  <si>
-    <t>3,859</t>
-  </si>
-  <si>
-    <t>4,821</t>
-  </si>
-  <si>
-    <t>6,101</t>
-  </si>
-  <si>
-    <t>6,188</t>
-  </si>
-  <si>
-    <t>6,484</t>
-  </si>
-  <si>
-    <t>7,333</t>
-  </si>
-  <si>
-    <t>8,204</t>
-  </si>
-  <si>
-    <t>16.13%</t>
-  </si>
-  <si>
-    <t>17.78%</t>
-  </si>
-  <si>
-    <t>25.88%</t>
-  </si>
-  <si>
-    <t>22.96%</t>
-  </si>
-  <si>
-    <t>19.62%</t>
-  </si>
-  <si>
-    <t>17.33%</t>
-  </si>
-  <si>
-    <t>17.64%</t>
-  </si>
-  <si>
-    <t>22.44%</t>
-  </si>
-  <si>
-    <t>21.59%</t>
-  </si>
-  <si>
-    <t>18.47%</t>
-  </si>
-  <si>
-    <t>16.41%</t>
-  </si>
-  <si>
-    <t>15.90%</t>
-  </si>
-  <si>
-    <t>15.35%</t>
-  </si>
-  <si>
-    <t>14.03%</t>
-  </si>
-  <si>
-    <t>14.38%</t>
-  </si>
-  <si>
-    <t>14.67%</t>
-  </si>
-  <si>
-    <t>16.63%</t>
-  </si>
-  <si>
-    <t>19.20%</t>
-  </si>
-  <si>
-    <t>18.34%</t>
-  </si>
-  <si>
-    <t>18.02%</t>
-  </si>
-  <si>
-    <t>19.49%</t>
-  </si>
-  <si>
-    <t>21.14%</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>25</t>
-  </si>
-  <si>
-    <t>56</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>106</t>
-  </si>
-  <si>
-    <t>132</t>
-  </si>
-  <si>
-    <t>213</t>
-  </si>
-  <si>
-    <t>259</t>
-  </si>
-  <si>
-    <t>304</t>
-  </si>
-  <si>
-    <t>361</t>
-  </si>
-  <si>
-    <t>425</t>
-  </si>
-  <si>
-    <t>490</t>
-  </si>
-  <si>
-    <t>563</t>
-  </si>
-  <si>
-    <t>637</t>
-  </si>
-  <si>
-    <t>722</t>
-  </si>
-  <si>
-    <t>811</t>
-  </si>
-  <si>
-    <t>908</t>
-  </si>
-  <si>
-    <t>1,016</t>
-  </si>
-  <si>
-    <t>1,113</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>34</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>49</t>
-  </si>
-  <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>103</t>
-  </si>
-  <si>
-    <t>124</t>
-  </si>
-  <si>
-    <t>171</t>
-  </si>
-  <si>
-    <t>243</t>
-  </si>
-  <si>
-    <t>328</t>
-  </si>
-  <si>
-    <t>475</t>
-  </si>
-  <si>
-    <t>632</t>
-  </si>
-  <si>
-    <t>892</t>
-  </si>
-  <si>
-    <t>1,153</t>
-  </si>
-  <si>
-    <t>1,540</t>
-  </si>
-  <si>
-    <t>2,050</t>
-  </si>
-  <si>
-    <t>2,649</t>
-  </si>
-  <si>
-    <t>3,281</t>
-  </si>
-  <si>
-    <t>3,996</t>
-  </si>
-  <si>
-    <t>4,749</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
     <t>79</t>
   </si>
   <si>
@@ -775,7 +962,7 @@
     <t>2,177</t>
   </si>
   <si>
-    <t>2,773</t>
+    <t>2,772</t>
   </si>
   <si>
     <t>3,460</t>
@@ -790,21 +977,43 @@
     <t>5,862</t>
   </si>
   <si>
-    <t>22.2%</t>
+    <t>7,170
+[note 5]</t>
+  </si>
+  <si>
+    <t>8,103</t>
+  </si>
+  <si>
+    <t>9,619</t>
+  </si>
+  <si>
+    <t>11,091</t>
+  </si>
+  <si>
+    <t>12,614</t>
+  </si>
+  <si>
+    <t>33.3%</t>
   </si>
   <si>
     <t>14.3%</t>
   </si>
   <si>
+    <t>12.5%</t>
+  </si>
+  <si>
     <t>11.8%</t>
   </si>
   <si>
+    <t>9.5%</t>
+  </si>
+  <si>
+    <t>11.1%</t>
+  </si>
+  <si>
     <t>10.7%</t>
   </si>
   <si>
-    <t>19.4%</t>
-  </si>
-  <si>
     <t>42.4%</t>
   </si>
   <si>
@@ -859,24 +1068,28 @@
     <t>20.3%</t>
   </si>
   <si>
+    <t>17.6%
+[note 5]</t>
+  </si>
+  <si>
+    <t>17.0%</t>
+  </si>
+  <si>
+    <t>15.8%</t>
+  </si>
+  <si>
+    <t>15.0%</t>
+  </si>
+  <si>
+    <t>14.0%</t>
+  </si>
+  <si>
+    <t>16.7%</t>
+  </si>
+  <si>
     <t>100.0%</t>
   </si>
   <si>
-    <t>12.5%</t>
-  </si>
-  <si>
-    <t>0.0%</t>
-  </si>
-  <si>
-    <t>-100.0%</t>
-  </si>
-  <si>
-    <t>33.3%</t>
-  </si>
-  <si>
-    <t>-13.6%</t>
-  </si>
-  <si>
     <t>80.0%</t>
   </si>
   <si>
@@ -931,6 +1144,19 @@
     <t>11.4%</t>
   </si>
   <si>
+    <t>11.2%
+[note 5]</t>
+  </si>
+  <si>
+    <t>13.0%</t>
+  </si>
+  <si>
+    <t>9.4%</t>
+  </si>
+  <si>
+    <t>6.9%</t>
+  </si>
+  <si>
     <t>2.44%</t>
   </si>
   <si>
@@ -1006,27 +1232,43 @@
     <t>2.49%</t>
   </si>
   <si>
-    <t>2.4%</t>
-  </si>
-  <si>
-    <t>31.1%</t>
-  </si>
-  <si>
-    <t>27.4%</t>
-  </si>
-  <si>
-    <t>15.7%</t>
+    <t>2.11%
+[note 5]</t>
+  </si>
+  <si>
+    <t>2.16%</t>
+  </si>
+  <si>
+    <t>2.29%</t>
+  </si>
+  <si>
+    <t>2.43%</t>
+  </si>
+  <si>
+    <t>2.51%</t>
+  </si>
+  <si>
+    <t>7.3%</t>
+  </si>
+  <si>
+    <t>17.1%</t>
+  </si>
+  <si>
+    <t>19.5%</t>
+  </si>
+  <si>
+    <t>34.1%</t>
+  </si>
+  <si>
+    <t>33.9%</t>
+  </si>
+  <si>
+    <t>22.3%</t>
   </si>
   <si>
     <t>14.1%</t>
   </si>
   <si>
-    <t>2.0%</t>
-  </si>
-  <si>
-    <t>3.0%</t>
-  </si>
-  <si>
     <t>7.1%</t>
   </si>
   <si>
@@ -1036,9 +1278,6 @@
     <t>4.8%</t>
   </si>
   <si>
-    <t>3.7%</t>
-  </si>
-  <si>
     <t>3.9%</t>
   </si>
   <si>
@@ -1072,6 +1311,22 @@
     <t>10.4%</t>
   </si>
   <si>
+    <t>12.0%
+[note 5]</t>
+  </si>
+  <si>
+    <t>12.7%</t>
+  </si>
+  <si>
+    <t>14.5%</t>
+  </si>
+  <si>
+    <t>16.2%</t>
+  </si>
+  <si>
+    <t>17.9%</t>
+  </si>
+  <si>
     <t>163</t>
   </si>
   <si>
@@ -1087,6 +1342,9 @@
     <t>576</t>
   </si>
   <si>
+    <t>313</t>
+  </si>
+  <si>
     <t>119</t>
   </si>
   <si>
@@ -1099,7 +1357,7 @@
     <t>90</t>
   </si>
   <si>
-    <t>249</t>
+    <t>922</t>
   </si>
   <si>
     <t>1,394</t>
@@ -1168,6 +1426,21 @@
     <t>185,037</t>
   </si>
   <si>
+    <t>181,386</t>
+  </si>
+  <si>
+    <t>177,984</t>
+  </si>
+  <si>
+    <t>169,039</t>
+  </si>
+  <si>
+    <t>158,764</t>
+  </si>
+  <si>
+    <t>150,539</t>
+  </si>
+  <si>
     <t>325</t>
   </si>
   <si>
@@ -1222,7 +1495,19 @@
     <t>30,068</t>
   </si>
   <si>
-    <t>0</t>
+    <t>29,429</t>
+  </si>
+  <si>
+    <t>26,905</t>
+  </si>
+  <si>
+    <t>30,081</t>
+  </si>
+  <si>
+    <t>29,788</t>
+  </si>
+  <si>
+    <t>28,179</t>
   </si>
   <si>
     <t>46</t>
@@ -1234,6 +1519,9 @@
     <t>187</t>
   </si>
   <si>
+    <t>450</t>
+  </si>
+  <si>
     <t>644</t>
   </si>
   <si>
@@ -1246,6 +1534,9 @@
     <t>727</t>
   </si>
   <si>
+    <t>817</t>
+  </si>
+  <si>
     <t>765</t>
   </si>
   <si>
@@ -1264,10 +1555,7 @@
     <t>763</t>
   </si>
   <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>988</t>
+    <t>1739</t>
   </si>
   <si>
     <t>[note 2] 2,197</t>
@@ -1336,6 +1624,21 @@
     <t>451,462</t>
   </si>
   <si>
+    <t>471,531</t>
+  </si>
+  <si>
+    <t>493,067</t>
+  </si>
+  <si>
+    <t>513,183</t>
+  </si>
+  <si>
+    <t>529,418</t>
+  </si>
+  <si>
+    <t>546,016</t>
+  </si>
+  <si>
     <t>[3]</t>
   </si>
   <si>
@@ -1369,10 +1672,10 @@
     <t>[13]</t>
   </si>
   <si>
-    <t>[14][15]</t>
-  </si>
-  <si>
-    <t>[16]</t>
+    <t>[14]</t>
+  </si>
+  <si>
+    <t>[15][16]</t>
   </si>
   <si>
     <t>[17]</t>
@@ -1436,6 +1739,24 @@
   </si>
   <si>
     <t>[37]</t>
+  </si>
+  <si>
+    <t>[38]</t>
+  </si>
+  <si>
+    <t>[40]</t>
+  </si>
+  <si>
+    <t>[41]</t>
+  </si>
+  <si>
+    <t>[42]</t>
+  </si>
+  <si>
+    <t>[43]</t>
+  </si>
+  <si>
+    <t>[44]</t>
   </si>
 </sst>
 </file>
@@ -1797,7 +2118,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U38"/>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1875,8 +2196,14 @@
       <c r="C2" t="s">
         <v>20</v>
       </c>
+      <c r="H2" t="s">
+        <v>178</v>
+      </c>
+      <c r="J2" t="s">
+        <v>242</v>
+      </c>
       <c r="U2" t="s">
-        <v>440</v>
+        <v>538</v>
       </c>
     </row>
     <row r="3" spans="1:21">
@@ -1889,11 +2216,17 @@
       <c r="C3" t="s">
         <v>21</v>
       </c>
+      <c r="H3" t="s">
+        <v>179</v>
+      </c>
+      <c r="J3" t="s">
+        <v>242</v>
+      </c>
       <c r="Q3" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="U3" t="s">
-        <v>441</v>
+        <v>539</v>
       </c>
     </row>
     <row r="4" spans="1:21">
@@ -1906,11 +2239,17 @@
       <c r="C4" t="s">
         <v>22</v>
       </c>
+      <c r="H4" t="s">
+        <v>178</v>
+      </c>
+      <c r="J4" t="s">
+        <v>242</v>
+      </c>
       <c r="Q4" t="s">
-        <v>352</v>
+        <v>434</v>
       </c>
       <c r="U4" t="s">
-        <v>442</v>
+        <v>540</v>
       </c>
     </row>
     <row r="5" spans="1:21">
@@ -1921,37 +2260,46 @@
         <v>43840</v>
       </c>
       <c r="D5" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F5" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="H5" t="s">
+        <v>178</v>
+      </c>
+      <c r="I5" t="s">
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>190</v>
+        <v>243</v>
+      </c>
+      <c r="K5" t="s">
+        <v>244</v>
       </c>
       <c r="L5" t="s">
-        <v>190</v>
-      </c>
-      <c r="N5" t="s">
-        <v>281</v>
+        <v>245</v>
+      </c>
+      <c r="M5" t="s">
+        <v>324</v>
       </c>
       <c r="O5" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="P5" t="s">
-        <v>330</v>
+        <v>408</v>
       </c>
       <c r="Q5" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="S5" t="s">
-        <v>402</v>
+        <v>242</v>
       </c>
       <c r="T5" t="s">
-        <v>353</v>
+        <v>435</v>
       </c>
       <c r="U5" t="s">
-        <v>443</v>
+        <v>541</v>
       </c>
     </row>
     <row r="6" spans="1:21">
@@ -1962,34 +2310,55 @@
         <v>43841</v>
       </c>
       <c r="D6" t="s">
-        <v>46</v>
+        <v>52</v>
+      </c>
+      <c r="E6" t="s">
+        <v>84</v>
       </c>
       <c r="F6" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="G6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I6" t="s">
+        <v>211</v>
       </c>
       <c r="J6" t="s">
-        <v>190</v>
+        <v>243</v>
+      </c>
+      <c r="K6" t="s">
+        <v>180</v>
       </c>
       <c r="L6" t="s">
-        <v>190</v>
+        <v>178</v>
+      </c>
+      <c r="M6" t="s">
+        <v>325</v>
+      </c>
+      <c r="N6" t="s">
+        <v>86</v>
       </c>
       <c r="O6" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="P6" t="s">
-        <v>330</v>
+        <v>409</v>
       </c>
       <c r="Q6" t="s">
-        <v>354</v>
+        <v>436</v>
       </c>
       <c r="S6" t="s">
-        <v>403</v>
+        <v>495</v>
       </c>
       <c r="T6" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U6" t="s">
-        <v>444</v>
+        <v>542</v>
       </c>
     </row>
     <row r="7" spans="1:21">
@@ -2000,34 +2369,55 @@
         <v>43842</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E7" t="s">
+        <v>85</v>
       </c>
       <c r="F7" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="G7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H7" t="s">
+        <v>180</v>
+      </c>
+      <c r="I7" t="s">
+        <v>212</v>
       </c>
       <c r="J7" t="s">
-        <v>190</v>
+        <v>243</v>
+      </c>
+      <c r="K7" t="s">
+        <v>178</v>
       </c>
       <c r="L7" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="M7" t="s">
+        <v>326</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="P7" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="Q7" t="s">
-        <v>355</v>
+        <v>437</v>
       </c>
       <c r="S7" t="s">
-        <v>404</v>
+        <v>496</v>
       </c>
       <c r="T7" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U7" t="s">
-        <v>445</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:21">
@@ -2038,34 +2428,52 @@
         <v>43843</v>
       </c>
       <c r="D8" t="s">
-        <v>46</v>
+        <v>53</v>
+      </c>
+      <c r="E8" t="s">
+        <v>86</v>
       </c>
       <c r="F8" t="s">
-        <v>91</v>
+        <v>55</v>
+      </c>
+      <c r="G8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H8" t="s">
+        <v>180</v>
+      </c>
+      <c r="I8" t="s">
+        <v>212</v>
       </c>
       <c r="J8" t="s">
-        <v>190</v>
+        <v>243</v>
+      </c>
+      <c r="K8" t="s">
+        <v>178</v>
       </c>
       <c r="L8" t="s">
-        <v>190</v>
+        <v>182</v>
+      </c>
+      <c r="M8" t="s">
+        <v>326</v>
       </c>
       <c r="O8" t="s">
-        <v>305</v>
+        <v>378</v>
       </c>
       <c r="P8" t="s">
-        <v>330</v>
+        <v>410</v>
       </c>
       <c r="Q8" t="s">
-        <v>356</v>
+        <v>438</v>
       </c>
       <c r="S8" t="s">
-        <v>405</v>
+        <v>497</v>
       </c>
       <c r="T8" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U8" t="s">
-        <v>446</v>
+        <v>544</v>
       </c>
     </row>
     <row r="9" spans="1:21">
@@ -2073,37 +2481,55 @@
         <v>9</v>
       </c>
       <c r="B9" s="2">
-        <v>43845</v>
+        <v>43844</v>
+      </c>
+      <c r="D9" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" t="s">
+        <v>55</v>
+      </c>
+      <c r="G9" t="s">
+        <v>86</v>
+      </c>
+      <c r="H9" t="s">
+        <v>180</v>
+      </c>
+      <c r="I9" t="s">
+        <v>213</v>
       </c>
       <c r="J9" t="s">
-        <v>191</v>
+        <v>243</v>
       </c>
       <c r="K9" t="s">
-        <v>214</v>
+        <v>178</v>
       </c>
       <c r="L9" t="s">
-        <v>194</v>
+        <v>182</v>
       </c>
       <c r="M9" t="s">
-        <v>258</v>
-      </c>
-      <c r="N9" t="s">
-        <v>282</v>
+        <v>326</v>
       </c>
       <c r="O9" t="s">
-        <v>306</v>
+        <v>378</v>
+      </c>
+      <c r="P9" t="s">
+        <v>410</v>
       </c>
       <c r="Q9" t="s">
-        <v>357</v>
+        <v>439</v>
       </c>
       <c r="S9" t="s">
-        <v>406</v>
+        <v>498</v>
       </c>
       <c r="T9" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U9" t="s">
-        <v>447</v>
+        <v>545</v>
       </c>
     </row>
     <row r="10" spans="1:21">
@@ -2111,52 +2537,58 @@
         <v>10</v>
       </c>
       <c r="B10" s="2">
-        <v>43846</v>
+        <v>43845</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>20</v>
+      </c>
+      <c r="E10" t="s">
+        <v>87</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>55</v>
+      </c>
+      <c r="G10" t="s">
+        <v>86</v>
       </c>
       <c r="H10" t="s">
-        <v>144</v>
+        <v>181</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>214</v>
       </c>
       <c r="J10" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="K10" t="s">
-        <v>215</v>
+        <v>271</v>
       </c>
       <c r="L10" t="s">
-        <v>238</v>
+        <v>298</v>
       </c>
       <c r="M10" t="s">
-        <v>259</v>
+        <v>325</v>
       </c>
       <c r="N10" t="s">
-        <v>283</v>
+        <v>354</v>
       </c>
       <c r="O10" t="s">
-        <v>307</v>
+        <v>379</v>
       </c>
       <c r="P10" t="s">
-        <v>331</v>
+        <v>411</v>
       </c>
       <c r="Q10" t="s">
-        <v>358</v>
+        <v>440</v>
       </c>
       <c r="S10" t="s">
-        <v>407</v>
+        <v>499</v>
       </c>
       <c r="T10" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U10" t="s">
-        <v>448</v>
+        <v>546</v>
       </c>
     </row>
     <row r="11" spans="1:21">
@@ -2164,58 +2596,58 @@
         <v>11</v>
       </c>
       <c r="B11" s="2">
-        <v>43847</v>
+        <v>43846</v>
       </c>
       <c r="D11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>116</v>
       </c>
       <c r="G11" t="s">
-        <v>118</v>
+        <v>148</v>
       </c>
       <c r="H11" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>215</v>
       </c>
       <c r="J11" t="s">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="K11" t="s">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="L11" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="M11" t="s">
-        <v>260</v>
+        <v>327</v>
       </c>
       <c r="N11" t="s">
-        <v>283</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="P11" t="s">
-        <v>332</v>
+        <v>149</v>
       </c>
       <c r="Q11" t="s">
-        <v>359</v>
+        <v>441</v>
       </c>
       <c r="S11" t="s">
-        <v>408</v>
+        <v>500</v>
       </c>
       <c r="T11" t="s">
-        <v>415</v>
+        <v>509</v>
       </c>
       <c r="U11" t="s">
-        <v>449</v>
+        <v>547</v>
       </c>
     </row>
     <row r="12" spans="1:21">
@@ -2223,28 +2655,58 @@
         <v>12</v>
       </c>
       <c r="B12" s="2">
-        <v>43848</v>
+        <v>43847</v>
+      </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
+      <c r="E12" t="s">
+        <v>89</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>119</v>
+        <v>149</v>
+      </c>
+      <c r="H12" t="s">
+        <v>182</v>
+      </c>
+      <c r="I12" t="s">
+        <v>216</v>
+      </c>
+      <c r="J12" t="s">
+        <v>244</v>
       </c>
       <c r="K12" t="s">
-        <v>217</v>
+        <v>273</v>
+      </c>
+      <c r="L12" t="s">
+        <v>299</v>
+      </c>
+      <c r="M12" t="s">
+        <v>328</v>
       </c>
       <c r="N12" t="s">
-        <v>284</v>
+        <v>86</v>
       </c>
       <c r="O12" t="s">
-        <v>309</v>
+        <v>381</v>
       </c>
       <c r="P12" t="s">
-        <v>333</v>
+        <v>412</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>442</v>
+      </c>
+      <c r="S12" t="s">
+        <v>501</v>
+      </c>
+      <c r="T12" t="s">
+        <v>509</v>
       </c>
       <c r="U12" t="s">
-        <v>450</v>
+        <v>548</v>
       </c>
     </row>
     <row r="13" spans="1:21">
@@ -2252,55 +2714,49 @@
         <v>13</v>
       </c>
       <c r="B13" s="2">
-        <v>43849</v>
+        <v>43848</v>
       </c>
       <c r="D13" t="s">
-        <v>49</v>
+        <v>56</v>
+      </c>
+      <c r="E13" t="s">
+        <v>90</v>
       </c>
       <c r="F13" t="s">
-        <v>94</v>
+        <v>118</v>
       </c>
       <c r="G13" t="s">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="H13" t="s">
-        <v>21</v>
+        <v>178</v>
       </c>
       <c r="I13" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="J13" t="s">
-        <v>192</v>
+        <v>245</v>
       </c>
       <c r="K13" t="s">
-        <v>196</v>
+        <v>274</v>
       </c>
       <c r="L13" t="s">
-        <v>239</v>
+        <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>261</v>
+        <v>329</v>
       </c>
       <c r="N13" t="s">
-        <v>285</v>
+        <v>354</v>
       </c>
       <c r="O13" t="s">
-        <v>310</v>
+        <v>382</v>
       </c>
       <c r="P13" t="s">
-        <v>334</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>360</v>
-      </c>
-      <c r="S13" t="s">
-        <v>409</v>
-      </c>
-      <c r="T13" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="U13" t="s">
-        <v>450</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:21">
@@ -2308,55 +2764,58 @@
         <v>14</v>
       </c>
       <c r="B14" s="2">
-        <v>43850</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
+        <v>43849</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>91</v>
       </c>
       <c r="F14" t="s">
-        <v>95</v>
+        <v>119</v>
       </c>
       <c r="G14" t="s">
-        <v>121</v>
+        <v>151</v>
+      </c>
+      <c r="H14" t="s">
+        <v>21</v>
+      </c>
+      <c r="I14" t="s">
+        <v>218</v>
       </c>
       <c r="J14" t="s">
-        <v>193</v>
+        <v>245</v>
       </c>
       <c r="K14" t="s">
-        <v>196</v>
+        <v>248</v>
       </c>
       <c r="L14" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="M14" t="s">
-        <v>262</v>
+        <v>330</v>
       </c>
       <c r="N14" t="s">
-        <v>281</v>
+        <v>324</v>
       </c>
       <c r="O14" t="s">
-        <v>311</v>
+        <v>383</v>
       </c>
       <c r="P14" t="s">
-        <v>261</v>
+        <v>414</v>
       </c>
       <c r="Q14" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="S14" t="s">
-        <v>353</v>
+        <v>502</v>
       </c>
       <c r="T14" t="s">
-        <v>417</v>
+        <v>503</v>
       </c>
       <c r="U14" t="s">
-        <v>451</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:21">
@@ -2364,43 +2823,61 @@
         <v>15</v>
       </c>
       <c r="B15" s="2">
-        <v>43851</v>
+        <v>43850</v>
       </c>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
+      </c>
+      <c r="D15" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" t="s">
+        <v>92</v>
       </c>
       <c r="F15" t="s">
-        <v>96</v>
+        <v>120</v>
       </c>
       <c r="G15" t="s">
-        <v>122</v>
+        <v>152</v>
       </c>
       <c r="H15" t="s">
-        <v>146</v>
+        <v>183</v>
+      </c>
+      <c r="I15" t="s">
+        <v>219</v>
       </c>
       <c r="J15" t="s">
-        <v>194</v>
+        <v>180</v>
+      </c>
+      <c r="K15" t="s">
+        <v>248</v>
+      </c>
+      <c r="L15" t="s">
+        <v>300</v>
+      </c>
+      <c r="M15" t="s">
+        <v>241</v>
       </c>
       <c r="N15" t="s">
-        <v>286</v>
+        <v>355</v>
       </c>
       <c r="O15" t="s">
-        <v>312</v>
+        <v>384</v>
       </c>
       <c r="P15" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="Q15" t="s">
-        <v>362</v>
+        <v>444</v>
       </c>
       <c r="S15" t="s">
-        <v>410</v>
+        <v>503</v>
       </c>
       <c r="T15" t="s">
-        <v>418</v>
+        <v>510</v>
       </c>
       <c r="U15" t="s">
-        <v>452</v>
+        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:21">
@@ -2408,43 +2885,37 @@
         <v>16</v>
       </c>
       <c r="B16" s="2">
-        <v>43852</v>
+        <v>43851</v>
       </c>
       <c r="C16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
-        <v>97</v>
+        <v>121</v>
       </c>
       <c r="G16" t="s">
-        <v>123</v>
+        <v>153</v>
       </c>
       <c r="H16" t="s">
-        <v>147</v>
+        <v>184</v>
       </c>
       <c r="J16" t="s">
-        <v>195</v>
-      </c>
-      <c r="N16" t="s">
-        <v>281</v>
+        <v>246</v>
       </c>
       <c r="O16" t="s">
-        <v>313</v>
-      </c>
-      <c r="P16" t="s">
-        <v>336</v>
+        <v>385</v>
       </c>
       <c r="Q16" t="s">
-        <v>363</v>
+        <v>445</v>
       </c>
       <c r="S16" t="s">
-        <v>411</v>
+        <v>504</v>
       </c>
       <c r="T16" t="s">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="U16" t="s">
-        <v>453</v>
+        <v>551</v>
       </c>
     </row>
     <row r="17" spans="1:21">
@@ -2452,58 +2923,37 @@
         <v>17</v>
       </c>
       <c r="B17" s="2">
-        <v>43853</v>
+        <v>43852</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
-      </c>
-      <c r="D17" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="F17" t="s">
-        <v>98</v>
+        <v>122</v>
       </c>
       <c r="G17" t="s">
-        <v>124</v>
+        <v>154</v>
       </c>
       <c r="H17" t="s">
-        <v>148</v>
-      </c>
-      <c r="I17" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>196</v>
-      </c>
-      <c r="K17" t="s">
-        <v>218</v>
-      </c>
-      <c r="L17" t="s">
-        <v>22</v>
-      </c>
-      <c r="M17" t="s">
-        <v>263</v>
-      </c>
-      <c r="N17" t="s">
-        <v>136</v>
+        <v>247</v>
       </c>
       <c r="O17" t="s">
-        <v>314</v>
-      </c>
-      <c r="P17" t="s">
-        <v>337</v>
+        <v>386</v>
       </c>
       <c r="Q17" t="s">
-        <v>364</v>
+        <v>446</v>
       </c>
       <c r="S17" t="s">
-        <v>412</v>
+        <v>505</v>
       </c>
       <c r="T17" t="s">
-        <v>420</v>
+        <v>512</v>
       </c>
       <c r="U17" t="s">
-        <v>454</v>
+        <v>552</v>
       </c>
     </row>
     <row r="18" spans="1:21">
@@ -2511,61 +2961,58 @@
         <v>18</v>
       </c>
       <c r="B18" s="2">
-        <v>43854</v>
+        <v>43853</v>
       </c>
       <c r="C18" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>155</v>
+      </c>
+      <c r="H18" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" t="s">
+        <v>220</v>
+      </c>
+      <c r="J18" t="s">
+        <v>248</v>
+      </c>
+      <c r="K18" t="s">
         <v>52</v>
       </c>
-      <c r="E18" t="s">
-        <v>73</v>
-      </c>
-      <c r="F18" t="s">
-        <v>99</v>
-      </c>
-      <c r="G18" t="s">
-        <v>125</v>
-      </c>
-      <c r="H18" t="s">
-        <v>149</v>
-      </c>
-      <c r="I18" t="s">
-        <v>172</v>
-      </c>
-      <c r="J18" t="s">
-        <v>91</v>
-      </c>
-      <c r="K18" t="s">
-        <v>219</v>
-      </c>
       <c r="L18" t="s">
-        <v>240</v>
+        <v>22</v>
       </c>
       <c r="M18" t="s">
-        <v>264</v>
+        <v>331</v>
       </c>
       <c r="N18" t="s">
-        <v>287</v>
+        <v>167</v>
       </c>
       <c r="O18" t="s">
-        <v>315</v>
+        <v>387</v>
       </c>
       <c r="P18" t="s">
-        <v>142</v>
+        <v>415</v>
       </c>
       <c r="Q18" t="s">
-        <v>365</v>
+        <v>447</v>
       </c>
       <c r="S18" t="s">
-        <v>413</v>
+        <v>506</v>
       </c>
       <c r="T18" t="s">
-        <v>421</v>
+        <v>513</v>
       </c>
       <c r="U18" t="s">
-        <v>455</v>
+        <v>553</v>
       </c>
     </row>
     <row r="19" spans="1:21">
@@ -2573,64 +3020,61 @@
         <v>19</v>
       </c>
       <c r="B19" s="2">
-        <v>43855</v>
+        <v>43854</v>
       </c>
       <c r="C19" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>93</v>
       </c>
       <c r="F19" t="s">
-        <v>100</v>
+        <v>124</v>
       </c>
       <c r="G19" t="s">
-        <v>126</v>
+        <v>156</v>
       </c>
       <c r="H19" t="s">
-        <v>150</v>
+        <v>187</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>221</v>
       </c>
       <c r="J19" t="s">
-        <v>197</v>
+        <v>55</v>
       </c>
       <c r="K19" t="s">
-        <v>220</v>
+        <v>51</v>
       </c>
       <c r="L19" t="s">
-        <v>241</v>
+        <v>301</v>
       </c>
       <c r="M19" t="s">
-        <v>265</v>
+        <v>332</v>
       </c>
       <c r="N19" t="s">
-        <v>288</v>
+        <v>356</v>
       </c>
       <c r="O19" t="s">
-        <v>316</v>
+        <v>388</v>
       </c>
       <c r="P19" t="s">
-        <v>338</v>
+        <v>112</v>
       </c>
       <c r="Q19" t="s">
-        <v>366</v>
-      </c>
-      <c r="R19" t="s">
-        <v>384</v>
+        <v>448</v>
       </c>
       <c r="S19" t="s">
-        <v>414</v>
+        <v>507</v>
       </c>
       <c r="T19" t="s">
-        <v>422</v>
+        <v>514</v>
       </c>
       <c r="U19" t="s">
-        <v>456</v>
+        <v>554</v>
       </c>
     </row>
     <row r="20" spans="1:21">
@@ -2638,61 +3082,64 @@
         <v>20</v>
       </c>
       <c r="B20" s="2">
-        <v>43856</v>
+        <v>43855</v>
       </c>
       <c r="C20" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
-        <v>101</v>
+        <v>125</v>
       </c>
       <c r="G20" t="s">
-        <v>127</v>
+        <v>157</v>
       </c>
       <c r="H20" t="s">
-        <v>151</v>
+        <v>188</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>222</v>
       </c>
       <c r="J20" t="s">
-        <v>198</v>
+        <v>249</v>
       </c>
       <c r="K20" t="s">
-        <v>221</v>
+        <v>275</v>
       </c>
       <c r="L20" t="s">
-        <v>242</v>
+        <v>302</v>
       </c>
       <c r="M20" t="s">
-        <v>266</v>
+        <v>333</v>
       </c>
       <c r="N20" t="s">
-        <v>289</v>
+        <v>357</v>
       </c>
       <c r="O20" t="s">
-        <v>317</v>
+        <v>389</v>
       </c>
       <c r="P20" t="s">
-        <v>339</v>
+        <v>416</v>
       </c>
       <c r="Q20" t="s">
-        <v>367</v>
+        <v>449</v>
       </c>
       <c r="R20" t="s">
-        <v>385</v>
+        <v>472</v>
+      </c>
+      <c r="S20" t="s">
+        <v>508</v>
       </c>
       <c r="T20" t="s">
-        <v>423</v>
+        <v>515</v>
       </c>
       <c r="U20" t="s">
-        <v>457</v>
+        <v>555</v>
       </c>
     </row>
     <row r="21" spans="1:21">
@@ -2700,61 +3147,61 @@
         <v>21</v>
       </c>
       <c r="B21" s="2">
-        <v>43857</v>
+        <v>43856</v>
       </c>
       <c r="C21" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="E21" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="F21" t="s">
-        <v>102</v>
+        <v>126</v>
       </c>
       <c r="G21" t="s">
-        <v>128</v>
+        <v>158</v>
       </c>
       <c r="H21" t="s">
-        <v>152</v>
+        <v>189</v>
       </c>
       <c r="I21" t="s">
-        <v>175</v>
+        <v>223</v>
       </c>
       <c r="J21" t="s">
-        <v>199</v>
+        <v>250</v>
       </c>
       <c r="K21" t="s">
-        <v>222</v>
+        <v>276</v>
       </c>
       <c r="L21" t="s">
-        <v>243</v>
+        <v>303</v>
       </c>
       <c r="M21" t="s">
-        <v>267</v>
+        <v>334</v>
       </c>
       <c r="N21" t="s">
-        <v>290</v>
+        <v>358</v>
       </c>
       <c r="O21" t="s">
-        <v>318</v>
+        <v>390</v>
       </c>
       <c r="P21" t="s">
-        <v>340</v>
+        <v>417</v>
       </c>
       <c r="Q21" t="s">
-        <v>368</v>
+        <v>450</v>
       </c>
       <c r="R21" t="s">
-        <v>386</v>
+        <v>473</v>
       </c>
       <c r="T21" t="s">
-        <v>424</v>
+        <v>516</v>
       </c>
       <c r="U21" t="s">
-        <v>458</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:21">
@@ -2762,61 +3209,61 @@
         <v>22</v>
       </c>
       <c r="B22" s="2">
-        <v>43858</v>
+        <v>43857</v>
       </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D22" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="E22" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="F22" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="G22" t="s">
-        <v>129</v>
+        <v>159</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>190</v>
       </c>
       <c r="I22" t="s">
-        <v>176</v>
+        <v>224</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>251</v>
       </c>
       <c r="K22" t="s">
-        <v>223</v>
+        <v>277</v>
       </c>
       <c r="L22" t="s">
-        <v>244</v>
+        <v>304</v>
       </c>
       <c r="M22" t="s">
-        <v>268</v>
+        <v>335</v>
       </c>
       <c r="N22" t="s">
-        <v>291</v>
+        <v>359</v>
       </c>
       <c r="O22" t="s">
-        <v>319</v>
+        <v>391</v>
       </c>
       <c r="P22" t="s">
-        <v>341</v>
+        <v>88</v>
       </c>
       <c r="Q22" t="s">
-        <v>369</v>
+        <v>451</v>
       </c>
       <c r="R22" t="s">
-        <v>387</v>
+        <v>474</v>
       </c>
       <c r="T22" t="s">
-        <v>425</v>
+        <v>517</v>
       </c>
       <c r="U22" t="s">
-        <v>459</v>
+        <v>557</v>
       </c>
     </row>
     <row r="23" spans="1:21">
@@ -2824,61 +3271,61 @@
         <v>23</v>
       </c>
       <c r="B23" s="2">
-        <v>43859</v>
+        <v>43858</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E23" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="F23" t="s">
-        <v>104</v>
+        <v>128</v>
       </c>
       <c r="G23" t="s">
-        <v>130</v>
+        <v>160</v>
       </c>
       <c r="H23" t="s">
-        <v>154</v>
+        <v>191</v>
       </c>
       <c r="I23" t="s">
-        <v>177</v>
+        <v>225</v>
       </c>
       <c r="J23" t="s">
-        <v>49</v>
+        <v>252</v>
       </c>
       <c r="K23" t="s">
-        <v>224</v>
+        <v>278</v>
       </c>
       <c r="L23" t="s">
-        <v>245</v>
+        <v>305</v>
       </c>
       <c r="M23" t="s">
-        <v>269</v>
+        <v>336</v>
       </c>
       <c r="N23" t="s">
-        <v>292</v>
+        <v>360</v>
       </c>
       <c r="O23" t="s">
-        <v>320</v>
+        <v>392</v>
       </c>
       <c r="P23" t="s">
-        <v>342</v>
+        <v>418</v>
       </c>
       <c r="Q23" t="s">
-        <v>370</v>
+        <v>452</v>
       </c>
       <c r="R23" t="s">
-        <v>388</v>
+        <v>475</v>
       </c>
       <c r="T23" t="s">
-        <v>426</v>
+        <v>518</v>
       </c>
       <c r="U23" t="s">
-        <v>460</v>
+        <v>558</v>
       </c>
     </row>
     <row r="24" spans="1:21">
@@ -2886,61 +3333,61 @@
         <v>24</v>
       </c>
       <c r="B24" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D24" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="F24" t="s">
-        <v>105</v>
+        <v>129</v>
       </c>
       <c r="G24" t="s">
-        <v>131</v>
+        <v>161</v>
       </c>
       <c r="H24" t="s">
-        <v>155</v>
+        <v>192</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>226</v>
       </c>
       <c r="J24" t="s">
-        <v>201</v>
+        <v>57</v>
       </c>
       <c r="K24" t="s">
-        <v>225</v>
+        <v>279</v>
       </c>
       <c r="L24" t="s">
-        <v>246</v>
+        <v>306</v>
       </c>
       <c r="M24" t="s">
-        <v>270</v>
+        <v>337</v>
       </c>
       <c r="N24" t="s">
-        <v>293</v>
+        <v>361</v>
       </c>
       <c r="O24" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="P24" t="s">
-        <v>343</v>
+        <v>419</v>
       </c>
       <c r="Q24" t="s">
-        <v>371</v>
+        <v>453</v>
       </c>
       <c r="R24" t="s">
-        <v>389</v>
+        <v>476</v>
       </c>
       <c r="T24" t="s">
-        <v>427</v>
+        <v>519</v>
       </c>
       <c r="U24" t="s">
-        <v>461</v>
+        <v>559</v>
       </c>
     </row>
     <row r="25" spans="1:21">
@@ -2948,61 +3395,61 @@
         <v>25</v>
       </c>
       <c r="B25" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="E25" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="F25" t="s">
-        <v>106</v>
+        <v>130</v>
       </c>
       <c r="G25" t="s">
-        <v>132</v>
+        <v>162</v>
       </c>
       <c r="H25" t="s">
-        <v>156</v>
+        <v>193</v>
       </c>
       <c r="I25" t="s">
-        <v>179</v>
+        <v>227</v>
       </c>
       <c r="J25" t="s">
-        <v>202</v>
+        <v>253</v>
       </c>
       <c r="K25" t="s">
-        <v>226</v>
+        <v>280</v>
       </c>
       <c r="L25" t="s">
-        <v>247</v>
+        <v>307</v>
       </c>
       <c r="M25" t="s">
-        <v>271</v>
+        <v>338</v>
       </c>
       <c r="N25" t="s">
-        <v>294</v>
+        <v>362</v>
       </c>
       <c r="O25" t="s">
-        <v>320</v>
+        <v>393</v>
       </c>
       <c r="P25" t="s">
-        <v>344</v>
+        <v>420</v>
       </c>
       <c r="Q25" t="s">
-        <v>372</v>
+        <v>454</v>
       </c>
       <c r="R25" t="s">
-        <v>390</v>
+        <v>477</v>
       </c>
       <c r="T25" t="s">
-        <v>428</v>
+        <v>520</v>
       </c>
       <c r="U25" t="s">
-        <v>462</v>
+        <v>560</v>
       </c>
     </row>
     <row r="26" spans="1:21">
@@ -3010,61 +3457,61 @@
         <v>26</v>
       </c>
       <c r="B26" s="2">
-        <v>43862</v>
+        <v>43861</v>
       </c>
       <c r="C26" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="E26" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="F26" t="s">
-        <v>107</v>
+        <v>131</v>
       </c>
       <c r="G26" t="s">
-        <v>133</v>
+        <v>163</v>
       </c>
       <c r="H26" t="s">
-        <v>157</v>
+        <v>194</v>
       </c>
       <c r="I26" t="s">
-        <v>180</v>
+        <v>228</v>
       </c>
       <c r="J26" t="s">
-        <v>203</v>
+        <v>254</v>
       </c>
       <c r="K26" t="s">
-        <v>227</v>
+        <v>281</v>
       </c>
       <c r="L26" t="s">
-        <v>229</v>
+        <v>308</v>
       </c>
       <c r="M26" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="N26" t="s">
-        <v>295</v>
+        <v>363</v>
       </c>
       <c r="O26" t="s">
-        <v>321</v>
+        <v>393</v>
       </c>
       <c r="P26" t="s">
-        <v>345</v>
+        <v>421</v>
       </c>
       <c r="Q26" t="s">
-        <v>373</v>
+        <v>455</v>
       </c>
       <c r="R26" t="s">
-        <v>391</v>
+        <v>478</v>
       </c>
       <c r="T26" t="s">
-        <v>429</v>
+        <v>521</v>
       </c>
       <c r="U26" t="s">
-        <v>463</v>
+        <v>561</v>
       </c>
     </row>
     <row r="27" spans="1:21">
@@ -3072,61 +3519,61 @@
         <v>27</v>
       </c>
       <c r="B27" s="2">
-        <v>43863</v>
+        <v>43862</v>
       </c>
       <c r="C27" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D27" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="F27" t="s">
-        <v>108</v>
+        <v>132</v>
       </c>
       <c r="G27" t="s">
-        <v>134</v>
+        <v>164</v>
       </c>
       <c r="H27" t="s">
-        <v>158</v>
+        <v>195</v>
       </c>
       <c r="I27" t="s">
-        <v>181</v>
+        <v>229</v>
       </c>
       <c r="J27" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
       <c r="K27" t="s">
-        <v>228</v>
+        <v>282</v>
       </c>
       <c r="L27" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="M27" t="s">
-        <v>273</v>
+        <v>340</v>
       </c>
       <c r="N27" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
       <c r="O27" t="s">
-        <v>322</v>
+        <v>394</v>
       </c>
       <c r="P27" t="s">
-        <v>346</v>
+        <v>422</v>
       </c>
       <c r="Q27" t="s">
-        <v>374</v>
+        <v>456</v>
       </c>
       <c r="R27" t="s">
-        <v>392</v>
+        <v>479</v>
       </c>
       <c r="T27" t="s">
-        <v>430</v>
+        <v>522</v>
       </c>
       <c r="U27" t="s">
-        <v>464</v>
+        <v>562</v>
       </c>
     </row>
     <row r="28" spans="1:21">
@@ -3134,61 +3581,61 @@
         <v>28</v>
       </c>
       <c r="B28" s="2">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="C28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E28" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="F28" t="s">
-        <v>109</v>
+        <v>133</v>
       </c>
       <c r="G28" t="s">
-        <v>135</v>
+        <v>165</v>
       </c>
       <c r="H28" t="s">
-        <v>159</v>
+        <v>196</v>
       </c>
       <c r="I28" t="s">
-        <v>182</v>
+        <v>230</v>
       </c>
       <c r="J28" t="s">
-        <v>205</v>
+        <v>256</v>
       </c>
       <c r="K28" t="s">
-        <v>229</v>
+        <v>283</v>
       </c>
       <c r="L28" t="s">
-        <v>249</v>
+        <v>309</v>
       </c>
       <c r="M28" t="s">
-        <v>274</v>
+        <v>341</v>
       </c>
       <c r="N28" t="s">
-        <v>297</v>
+        <v>365</v>
       </c>
       <c r="O28" t="s">
-        <v>323</v>
+        <v>395</v>
       </c>
       <c r="P28" t="s">
-        <v>347</v>
+        <v>423</v>
       </c>
       <c r="Q28" t="s">
-        <v>375</v>
+        <v>457</v>
       </c>
       <c r="R28" t="s">
-        <v>393</v>
+        <v>480</v>
       </c>
       <c r="T28" t="s">
-        <v>431</v>
+        <v>523</v>
       </c>
       <c r="U28" t="s">
-        <v>465</v>
+        <v>563</v>
       </c>
     </row>
     <row r="29" spans="1:21">
@@ -3196,61 +3643,61 @@
         <v>29</v>
       </c>
       <c r="B29" s="2">
-        <v>43865</v>
+        <v>43864</v>
       </c>
       <c r="C29" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D29" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="E29" t="s">
-        <v>83</v>
+        <v>103</v>
       </c>
       <c r="F29" t="s">
-        <v>110</v>
+        <v>134</v>
       </c>
       <c r="G29" t="s">
-        <v>136</v>
+        <v>166</v>
       </c>
       <c r="H29" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="I29" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="J29" t="s">
-        <v>206</v>
+        <v>257</v>
       </c>
       <c r="K29" t="s">
-        <v>230</v>
+        <v>284</v>
       </c>
       <c r="L29" t="s">
-        <v>250</v>
+        <v>310</v>
       </c>
       <c r="M29" t="s">
-        <v>275</v>
+        <v>342</v>
       </c>
       <c r="N29" t="s">
-        <v>298</v>
+        <v>366</v>
       </c>
       <c r="O29" t="s">
-        <v>324</v>
+        <v>396</v>
       </c>
       <c r="P29" t="s">
-        <v>348</v>
+        <v>424</v>
       </c>
       <c r="Q29" t="s">
-        <v>376</v>
+        <v>458</v>
       </c>
       <c r="R29" t="s">
-        <v>394</v>
+        <v>481</v>
       </c>
       <c r="T29" t="s">
-        <v>432</v>
+        <v>524</v>
       </c>
       <c r="U29" t="s">
-        <v>466</v>
+        <v>564</v>
       </c>
     </row>
     <row r="30" spans="1:21">
@@ -3258,61 +3705,61 @@
         <v>30</v>
       </c>
       <c r="B30" s="2">
-        <v>43866</v>
+        <v>43865</v>
       </c>
       <c r="C30" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D30" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="E30" t="s">
-        <v>84</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>111</v>
+        <v>135</v>
       </c>
       <c r="G30" t="s">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="H30" t="s">
-        <v>161</v>
+        <v>198</v>
       </c>
       <c r="I30" t="s">
-        <v>183</v>
+        <v>230</v>
       </c>
       <c r="J30" t="s">
-        <v>207</v>
+        <v>258</v>
       </c>
       <c r="K30" t="s">
-        <v>231</v>
+        <v>285</v>
       </c>
       <c r="L30" t="s">
-        <v>251</v>
+        <v>311</v>
       </c>
       <c r="M30" t="s">
-        <v>276</v>
+        <v>343</v>
       </c>
       <c r="N30" t="s">
-        <v>299</v>
+        <v>367</v>
       </c>
       <c r="O30" t="s">
-        <v>324</v>
+        <v>397</v>
       </c>
       <c r="P30" t="s">
-        <v>142</v>
+        <v>425</v>
       </c>
       <c r="Q30" t="s">
-        <v>377</v>
+        <v>459</v>
       </c>
       <c r="R30" t="s">
-        <v>395</v>
+        <v>482</v>
       </c>
       <c r="T30" t="s">
-        <v>433</v>
+        <v>525</v>
       </c>
       <c r="U30" t="s">
-        <v>467</v>
+        <v>565</v>
       </c>
     </row>
     <row r="31" spans="1:21">
@@ -3320,61 +3767,61 @@
         <v>31</v>
       </c>
       <c r="B31" s="2">
-        <v>43867</v>
+        <v>43866</v>
       </c>
       <c r="C31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D31" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="E31" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="F31" t="s">
+        <v>136</v>
+      </c>
+      <c r="G31" t="s">
+        <v>168</v>
+      </c>
+      <c r="H31" t="s">
+        <v>199</v>
+      </c>
+      <c r="I31" t="s">
+        <v>232</v>
+      </c>
+      <c r="J31" t="s">
+        <v>259</v>
+      </c>
+      <c r="K31" t="s">
+        <v>286</v>
+      </c>
+      <c r="L31" t="s">
+        <v>312</v>
+      </c>
+      <c r="M31" t="s">
+        <v>344</v>
+      </c>
+      <c r="N31" t="s">
+        <v>368</v>
+      </c>
+      <c r="O31" t="s">
+        <v>397</v>
+      </c>
+      <c r="P31" t="s">
         <v>112</v>
       </c>
-      <c r="G31" t="s">
-        <v>138</v>
-      </c>
-      <c r="H31" t="s">
-        <v>162</v>
-      </c>
-      <c r="I31" t="s">
-        <v>184</v>
-      </c>
-      <c r="J31" t="s">
-        <v>208</v>
-      </c>
-      <c r="K31" t="s">
-        <v>232</v>
-      </c>
-      <c r="L31" t="s">
-        <v>252</v>
-      </c>
-      <c r="M31" t="s">
-        <v>277</v>
-      </c>
-      <c r="N31" t="s">
-        <v>300</v>
-      </c>
-      <c r="O31" t="s">
-        <v>312</v>
-      </c>
-      <c r="P31" t="s">
-        <v>349</v>
-      </c>
       <c r="Q31" t="s">
-        <v>378</v>
+        <v>460</v>
       </c>
       <c r="R31" t="s">
-        <v>396</v>
+        <v>483</v>
       </c>
       <c r="T31" t="s">
-        <v>434</v>
+        <v>526</v>
       </c>
       <c r="U31" t="s">
-        <v>468</v>
+        <v>566</v>
       </c>
     </row>
     <row r="32" spans="1:21">
@@ -3382,61 +3829,61 @@
         <v>32</v>
       </c>
       <c r="B32" s="2">
-        <v>43868</v>
+        <v>43867</v>
       </c>
       <c r="C32" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D32" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="E32" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s">
-        <v>113</v>
+        <v>137</v>
       </c>
       <c r="G32" t="s">
-        <v>139</v>
+        <v>169</v>
       </c>
       <c r="H32" t="s">
-        <v>163</v>
+        <v>200</v>
       </c>
       <c r="I32" t="s">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="J32" t="s">
-        <v>209</v>
+        <v>260</v>
       </c>
       <c r="K32" t="s">
-        <v>233</v>
+        <v>287</v>
       </c>
       <c r="L32" t="s">
-        <v>253</v>
+        <v>313</v>
       </c>
       <c r="M32" t="s">
-        <v>278</v>
+        <v>345</v>
       </c>
       <c r="N32" t="s">
-        <v>259</v>
+        <v>369</v>
       </c>
       <c r="O32" t="s">
-        <v>325</v>
+        <v>385</v>
       </c>
       <c r="P32" t="s">
-        <v>141</v>
+        <v>426</v>
       </c>
       <c r="Q32" t="s">
-        <v>379</v>
+        <v>461</v>
       </c>
       <c r="R32" t="s">
-        <v>397</v>
+        <v>484</v>
       </c>
       <c r="T32" t="s">
-        <v>435</v>
+        <v>527</v>
       </c>
       <c r="U32" t="s">
-        <v>469</v>
+        <v>567</v>
       </c>
     </row>
     <row r="33" spans="1:21">
@@ -3444,61 +3891,61 @@
         <v>33</v>
       </c>
       <c r="B33" s="2">
-        <v>43869</v>
+        <v>43868</v>
       </c>
       <c r="C33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D33" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>87</v>
+        <v>106</v>
       </c>
       <c r="F33" t="s">
-        <v>114</v>
+        <v>138</v>
       </c>
       <c r="G33" t="s">
-        <v>140</v>
+        <v>170</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>201</v>
       </c>
       <c r="I33" t="s">
-        <v>186</v>
+        <v>234</v>
       </c>
       <c r="J33" t="s">
-        <v>210</v>
+        <v>261</v>
       </c>
       <c r="K33" t="s">
-        <v>234</v>
+        <v>288</v>
       </c>
       <c r="L33" t="s">
-        <v>254</v>
+        <v>314</v>
       </c>
       <c r="M33" t="s">
-        <v>279</v>
+        <v>346</v>
       </c>
       <c r="N33" t="s">
-        <v>301</v>
+        <v>325</v>
       </c>
       <c r="O33" t="s">
-        <v>326</v>
+        <v>398</v>
       </c>
       <c r="P33" t="s">
-        <v>350</v>
+        <v>172</v>
       </c>
       <c r="Q33" t="s">
-        <v>380</v>
+        <v>462</v>
       </c>
       <c r="R33" t="s">
-        <v>398</v>
+        <v>485</v>
       </c>
       <c r="T33" t="s">
-        <v>436</v>
+        <v>528</v>
       </c>
       <c r="U33" t="s">
-        <v>470</v>
+        <v>568</v>
       </c>
     </row>
     <row r="34" spans="1:21">
@@ -3506,61 +3953,61 @@
         <v>34</v>
       </c>
       <c r="B34" s="2">
-        <v>43870</v>
+        <v>43869</v>
       </c>
       <c r="C34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D34" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="E34" t="s">
-        <v>88</v>
+        <v>107</v>
       </c>
       <c r="F34" t="s">
-        <v>115</v>
+        <v>139</v>
       </c>
       <c r="G34" t="s">
-        <v>141</v>
+        <v>171</v>
       </c>
       <c r="H34" t="s">
-        <v>165</v>
+        <v>202</v>
       </c>
       <c r="I34" t="s">
-        <v>187</v>
+        <v>235</v>
       </c>
       <c r="J34" t="s">
-        <v>211</v>
+        <v>262</v>
       </c>
       <c r="K34" t="s">
-        <v>235</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>255</v>
+        <v>315</v>
       </c>
       <c r="M34" t="s">
-        <v>132</v>
+        <v>347</v>
       </c>
       <c r="N34" t="s">
-        <v>302</v>
+        <v>370</v>
       </c>
       <c r="O34" t="s">
-        <v>327</v>
+        <v>399</v>
       </c>
       <c r="P34" t="s">
-        <v>351</v>
+        <v>427</v>
       </c>
       <c r="Q34" t="s">
-        <v>381</v>
+        <v>463</v>
       </c>
       <c r="R34" t="s">
-        <v>399</v>
+        <v>486</v>
       </c>
       <c r="T34" t="s">
-        <v>437</v>
+        <v>529</v>
       </c>
       <c r="U34" t="s">
-        <v>471</v>
+        <v>569</v>
       </c>
     </row>
     <row r="35" spans="1:21">
@@ -3568,61 +4015,61 @@
         <v>35</v>
       </c>
       <c r="B35" s="2">
-        <v>43871</v>
+        <v>43870</v>
       </c>
       <c r="C35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D35" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>108</v>
       </c>
       <c r="F35" t="s">
-        <v>116</v>
+        <v>140</v>
       </c>
       <c r="G35" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="H35" t="s">
-        <v>166</v>
+        <v>203</v>
       </c>
       <c r="I35" t="s">
-        <v>188</v>
+        <v>236</v>
       </c>
       <c r="J35" t="s">
-        <v>212</v>
+        <v>263</v>
       </c>
       <c r="K35" t="s">
-        <v>236</v>
+        <v>290</v>
       </c>
       <c r="L35" t="s">
-        <v>256</v>
+        <v>316</v>
       </c>
       <c r="M35" t="s">
-        <v>280</v>
+        <v>163</v>
       </c>
       <c r="N35" t="s">
-        <v>303</v>
+        <v>371</v>
       </c>
       <c r="O35" t="s">
-        <v>328</v>
+        <v>400</v>
       </c>
       <c r="P35" t="s">
-        <v>260</v>
+        <v>428</v>
       </c>
       <c r="Q35" t="s">
-        <v>382</v>
+        <v>464</v>
       </c>
       <c r="R35" t="s">
-        <v>400</v>
+        <v>487</v>
       </c>
       <c r="T35" t="s">
-        <v>438</v>
+        <v>530</v>
       </c>
       <c r="U35" t="s">
-        <v>472</v>
+        <v>570</v>
       </c>
     </row>
     <row r="36" spans="1:21">
@@ -3630,61 +4077,61 @@
         <v>36</v>
       </c>
       <c r="B36" s="2">
-        <v>43872</v>
+        <v>43871</v>
       </c>
       <c r="C36" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D36" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>117</v>
+        <v>141</v>
       </c>
       <c r="G36" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="H36" t="s">
-        <v>167</v>
+        <v>204</v>
       </c>
       <c r="I36" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="J36" t="s">
-        <v>213</v>
+        <v>264</v>
       </c>
       <c r="K36" t="s">
-        <v>237</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>257</v>
+        <v>317</v>
       </c>
       <c r="M36" t="s">
-        <v>136</v>
+        <v>348</v>
       </c>
       <c r="N36" t="s">
-        <v>304</v>
+        <v>372</v>
       </c>
       <c r="O36" t="s">
-        <v>329</v>
+        <v>401</v>
       </c>
       <c r="P36" t="s">
-        <v>303</v>
+        <v>327</v>
       </c>
       <c r="Q36" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="R36" t="s">
-        <v>401</v>
+        <v>488</v>
       </c>
       <c r="T36" t="s">
-        <v>439</v>
+        <v>531</v>
       </c>
       <c r="U36" t="s">
-        <v>473</v>
+        <v>571</v>
       </c>
     </row>
     <row r="37" spans="1:21">
@@ -3692,7 +4139,61 @@
         <v>37</v>
       </c>
       <c r="B37" s="2">
-        <v>43873</v>
+        <v>43872</v>
+      </c>
+      <c r="C37" t="s">
+        <v>45</v>
+      </c>
+      <c r="D37" t="s">
+        <v>78</v>
+      </c>
+      <c r="E37" t="s">
+        <v>110</v>
+      </c>
+      <c r="F37" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" t="s">
+        <v>173</v>
+      </c>
+      <c r="H37" t="s">
+        <v>205</v>
+      </c>
+      <c r="I37" t="s">
+        <v>238</v>
+      </c>
+      <c r="J37" t="s">
+        <v>265</v>
+      </c>
+      <c r="K37" t="s">
+        <v>292</v>
+      </c>
+      <c r="L37" t="s">
+        <v>318</v>
+      </c>
+      <c r="M37" t="s">
+        <v>167</v>
+      </c>
+      <c r="N37" t="s">
+        <v>373</v>
+      </c>
+      <c r="O37" t="s">
+        <v>402</v>
+      </c>
+      <c r="P37" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>466</v>
+      </c>
+      <c r="R37" t="s">
+        <v>489</v>
+      </c>
+      <c r="T37" t="s">
+        <v>532</v>
+      </c>
+      <c r="U37" t="s">
+        <v>572</v>
       </c>
     </row>
     <row r="38" spans="1:21">
@@ -3700,7 +4201,317 @@
         <v>38</v>
       </c>
       <c r="B38" s="2">
+        <v>43873</v>
+      </c>
+      <c r="C38" t="s">
+        <v>46</v>
+      </c>
+      <c r="D38" t="s">
+        <v>79</v>
+      </c>
+      <c r="E38" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" t="s">
+        <v>143</v>
+      </c>
+      <c r="G38" t="s">
+        <v>174</v>
+      </c>
+      <c r="H38" t="s">
+        <v>206</v>
+      </c>
+      <c r="I38" t="s">
+        <v>239</v>
+      </c>
+      <c r="J38" t="s">
+        <v>266</v>
+      </c>
+      <c r="K38" t="s">
+        <v>293</v>
+      </c>
+      <c r="L38" t="s">
+        <v>319</v>
+      </c>
+      <c r="M38" t="s">
+        <v>349</v>
+      </c>
+      <c r="N38" t="s">
+        <v>374</v>
+      </c>
+      <c r="O38" t="s">
+        <v>403</v>
+      </c>
+      <c r="P38" t="s">
+        <v>429</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>467</v>
+      </c>
+      <c r="R38" t="s">
+        <v>490</v>
+      </c>
+      <c r="T38" t="s">
+        <v>533</v>
+      </c>
+      <c r="U38" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="2">
         <v>43874</v>
+      </c>
+      <c r="C39" t="s">
+        <v>47</v>
+      </c>
+      <c r="D39" t="s">
+        <v>80</v>
+      </c>
+      <c r="E39" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G39" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" t="s">
+        <v>207</v>
+      </c>
+      <c r="I39" t="s">
+        <v>240</v>
+      </c>
+      <c r="J39" t="s">
+        <v>267</v>
+      </c>
+      <c r="K39" t="s">
+        <v>294</v>
+      </c>
+      <c r="L39" t="s">
+        <v>320</v>
+      </c>
+      <c r="M39" t="s">
+        <v>350</v>
+      </c>
+      <c r="N39" t="s">
+        <v>375</v>
+      </c>
+      <c r="O39" t="s">
+        <v>404</v>
+      </c>
+      <c r="P39" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>468</v>
+      </c>
+      <c r="R39" t="s">
+        <v>491</v>
+      </c>
+      <c r="T39" t="s">
+        <v>534</v>
+      </c>
+      <c r="U39" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="2">
+        <v>43875</v>
+      </c>
+      <c r="C40" t="s">
+        <v>48</v>
+      </c>
+      <c r="D40" t="s">
+        <v>81</v>
+      </c>
+      <c r="E40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" t="s">
+        <v>145</v>
+      </c>
+      <c r="G40" t="s">
+        <v>176</v>
+      </c>
+      <c r="H40" t="s">
+        <v>208</v>
+      </c>
+      <c r="I40" t="s">
+        <v>241</v>
+      </c>
+      <c r="J40" t="s">
+        <v>268</v>
+      </c>
+      <c r="K40" t="s">
+        <v>295</v>
+      </c>
+      <c r="L40" t="s">
+        <v>321</v>
+      </c>
+      <c r="M40" t="s">
+        <v>351</v>
+      </c>
+      <c r="N40" t="s">
+        <v>376</v>
+      </c>
+      <c r="O40" t="s">
+        <v>405</v>
+      </c>
+      <c r="P40" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>469</v>
+      </c>
+      <c r="R40" t="s">
+        <v>492</v>
+      </c>
+      <c r="T40" t="s">
+        <v>535</v>
+      </c>
+      <c r="U40" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="2">
+        <v>43876</v>
+      </c>
+      <c r="C41" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s">
+        <v>82</v>
+      </c>
+      <c r="E41" t="s">
+        <v>114</v>
+      </c>
+      <c r="F41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G41" t="s">
+        <v>177</v>
+      </c>
+      <c r="H41" t="s">
+        <v>209</v>
+      </c>
+      <c r="I41" t="s">
+        <v>165</v>
+      </c>
+      <c r="J41" t="s">
+        <v>269</v>
+      </c>
+      <c r="K41" t="s">
+        <v>296</v>
+      </c>
+      <c r="L41" t="s">
+        <v>322</v>
+      </c>
+      <c r="M41" t="s">
+        <v>352</v>
+      </c>
+      <c r="N41" t="s">
+        <v>106</v>
+      </c>
+      <c r="O41" t="s">
+        <v>406</v>
+      </c>
+      <c r="P41" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q41" t="s">
+        <v>470</v>
+      </c>
+      <c r="R41" t="s">
+        <v>493</v>
+      </c>
+      <c r="T41" t="s">
+        <v>536</v>
+      </c>
+      <c r="U41" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="2">
+        <v>43877</v>
+      </c>
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" t="s">
+        <v>83</v>
+      </c>
+      <c r="E42" t="s">
+        <v>115</v>
+      </c>
+      <c r="F42" t="s">
+        <v>147</v>
+      </c>
+      <c r="G42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H42" t="s">
+        <v>210</v>
+      </c>
+      <c r="I42" t="s">
+        <v>103</v>
+      </c>
+      <c r="J42" t="s">
+        <v>270</v>
+      </c>
+      <c r="K42" t="s">
+        <v>297</v>
+      </c>
+      <c r="L42" t="s">
+        <v>323</v>
+      </c>
+      <c r="M42" t="s">
+        <v>353</v>
+      </c>
+      <c r="N42" t="s">
+        <v>377</v>
+      </c>
+      <c r="O42" t="s">
+        <v>407</v>
+      </c>
+      <c r="P42" t="s">
+        <v>433</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>471</v>
+      </c>
+      <c r="R42" t="s">
+        <v>494</v>
+      </c>
+      <c r="T42" t="s">
+        <v>537</v>
+      </c>
+      <c r="U42" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="2">
+        <v>43878</v>
       </c>
     </row>
   </sheetData>
